--- a/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Skill Corner/metrique_physical.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Skill Corner/metrique_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,130 +441,200 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>total_distance_full_all</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>total_metersperminute_full_all</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>running_distance_full_all</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>hsr_distance_full_all</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hsr_count_full_all</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sprint_distance_full_all</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sprint_count_full_all</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hi_distance_full_all</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>hi_count_full_all</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>medaccel_count_full_all</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>highaccel_count_full_all</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>meddecel_count_full_all</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>highdecel_count_full_all</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>psv99</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>total_distance_full_tip</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>total_metersperminute_full_tip</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>running_distance_full_tip</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>hsr_distance_full_tip</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>hsr_count_full_tip</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sprint_distance_full_tip</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sprint_count_full_tip</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>hi_distance_full_tip</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>hi_count_full_tip</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>medaccel_count_full_tip</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highaccel_count_full_tip</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>meddecel_count_full_tip</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highdecel_count_full_tip</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>total_distance_full_otip</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>total_metersperminute_full_otip</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>running_distance_full_otip</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>hsr_distance_full_otip</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>hsr_count_full_otip</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>sprint_distance_full_otip</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>sprint_count_full_otip</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>hi_distance_full_otip</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>hi_count_full_otip</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>medaccel_count_full_otip</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>highaccel_count_full_otip</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>meddecel_count_full_otip</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>highdecel_count_full_otip</t>
         </is>
@@ -577,81 +647,123 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>100813.6390066039</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1463.828357789807</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13518.23432847585</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5245.535321969417</v>
+      </c>
+      <c r="F2" t="n">
+        <v>514.9987473545457</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1655.009818724722</v>
+      </c>
+      <c r="H2" t="n">
+        <v>93.66138792498323</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6900.545140694139</v>
+      </c>
+      <c r="J2" t="n">
+        <v>608.660135279529</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1062.879009990911</v>
+      </c>
+      <c r="L2" t="n">
+        <v>64.52508977112061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>874.1744606920186</v>
+      </c>
+      <c r="N2" t="n">
+        <v>162.7140654390637</v>
+      </c>
+      <c r="O2" t="n">
+        <v>365.0602550794064</v>
+      </c>
+      <c r="P2" t="n">
         <v>39837.39236764453</v>
       </c>
-      <c r="C2" t="n">
+      <c r="Q2" t="n">
         <v>1701.358366132278</v>
       </c>
-      <c r="D2" t="n">
+      <c r="R2" t="n">
         <v>5968.08886022567</v>
       </c>
-      <c r="E2" t="n">
+      <c r="S2" t="n">
         <v>2354.593878143404</v>
       </c>
-      <c r="F2" t="n">
+      <c r="T2" t="n">
         <v>224.0123483529483</v>
       </c>
-      <c r="G2" t="n">
+      <c r="U2" t="n">
         <v>817.7452941929355</v>
       </c>
-      <c r="H2" t="n">
+      <c r="V2" t="n">
         <v>40.89225412311997</v>
       </c>
-      <c r="I2" t="n">
+      <c r="W2" t="n">
         <v>3172.339172336339</v>
       </c>
-      <c r="J2" t="n">
+      <c r="X2" t="n">
         <v>264.9046024760683</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Y2" t="n">
         <v>401.5759406776115</v>
       </c>
-      <c r="L2" t="n">
+      <c r="Z2" t="n">
         <v>23.61985998079917</v>
       </c>
-      <c r="M2" t="n">
+      <c r="AA2" t="n">
         <v>294.6681422365438</v>
       </c>
-      <c r="N2" t="n">
+      <c r="AB2" t="n">
         <v>44.48810944843942</v>
       </c>
-      <c r="O2" t="n">
+      <c r="AC2" t="n">
         <v>33327.89485070579</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AD2" t="n">
         <v>1832.361888924069</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AE2" t="n">
         <v>6179.706095249033</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AF2" t="n">
         <v>2494.80923766014</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AG2" t="n">
         <v>234.330268546022</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AH2" t="n">
         <v>703.0128052895238</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AI2" t="n">
         <v>35.5321076156395</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AJ2" t="n">
         <v>3197.822042949665</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AK2" t="n">
         <v>269.8623761616615</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AL2" t="n">
         <v>381.7842054920397</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AM2" t="n">
         <v>18.60648065971633</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AN2" t="n">
         <v>271.4648968931275</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AO2" t="n">
         <v>48.65545685018485</v>
       </c>
     </row>
@@ -662,81 +774,123 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>101557.7884184584</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1494.205288146735</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14295.59514698766</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5672.401924121161</v>
+      </c>
+      <c r="F3" t="n">
+        <v>533.9032321191443</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1722.074322306081</v>
+      </c>
+      <c r="H3" t="n">
+        <v>98.41835685401689</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7394.476246427243</v>
+      </c>
+      <c r="J3" t="n">
+        <v>632.3215889731612</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1060.166973179604</v>
+      </c>
+      <c r="L3" t="n">
+        <v>62.16919019359004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>868.3744169614248</v>
+      </c>
+      <c r="N3" t="n">
+        <v>152.7781755380201</v>
+      </c>
+      <c r="O3" t="n">
+        <v>364.6751047207613</v>
+      </c>
+      <c r="P3" t="n">
         <v>36310.40138116817</v>
       </c>
-      <c r="C3" t="n">
+      <c r="Q3" t="n">
         <v>1777.271010088398</v>
       </c>
-      <c r="D3" t="n">
+      <c r="R3" t="n">
         <v>5761.193470867132</v>
       </c>
-      <c r="E3" t="n">
+      <c r="S3" t="n">
         <v>2425.19686367999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="T3" t="n">
         <v>227.5153573726533</v>
       </c>
-      <c r="G3" t="n">
+      <c r="U3" t="n">
         <v>860.2428305835662</v>
       </c>
-      <c r="H3" t="n">
+      <c r="V3" t="n">
         <v>43.88113571679789</v>
       </c>
-      <c r="I3" t="n">
+      <c r="W3" t="n">
         <v>3285.439694263556</v>
       </c>
-      <c r="J3" t="n">
+      <c r="X3" t="n">
         <v>271.3964930894513</v>
       </c>
-      <c r="K3" t="n">
+      <c r="Y3" t="n">
         <v>371.0554937591571</v>
       </c>
-      <c r="L3" t="n">
+      <c r="Z3" t="n">
         <v>21.30545269663669</v>
       </c>
-      <c r="M3" t="n">
+      <c r="AA3" t="n">
         <v>261.6078427244524</v>
       </c>
-      <c r="N3" t="n">
+      <c r="AB3" t="n">
         <v>37.1747160857598</v>
       </c>
-      <c r="O3" t="n">
+      <c r="AC3" t="n">
         <v>36037.06640615848</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AD3" t="n">
         <v>1957.004221139997</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AE3" t="n">
         <v>6974.109047266845</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AF3" t="n">
         <v>2804.582707355944</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AG3" t="n">
         <v>254.0644509817654</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AH3" t="n">
         <v>717.5832557125184</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AI3" t="n">
         <v>38.14485448027065</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AJ3" t="n">
         <v>3522.165963068462</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AK3" t="n">
         <v>292.209305462036</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AL3" t="n">
         <v>409.8565343324854</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AM3" t="n">
         <v>19.78747529505673</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AN3" t="n">
         <v>299.4876304832763</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AO3" t="n">
         <v>52.19563709592533</v>
       </c>
     </row>
@@ -747,81 +901,123 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>102712.9064489202</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1547.220230747432</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14832.84622565253</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5778.402988034432</v>
+      </c>
+      <c r="F4" t="n">
+        <v>546.9331723037398</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1677.032463804002</v>
+      </c>
+      <c r="H4" t="n">
+        <v>98.60479138700509</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7455.435451838434</v>
+      </c>
+      <c r="J4" t="n">
+        <v>645.5379636907447</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1069.439739579291</v>
+      </c>
+      <c r="L4" t="n">
+        <v>61.55955356396546</v>
+      </c>
+      <c r="M4" t="n">
+        <v>863.5657824033128</v>
+      </c>
+      <c r="N4" t="n">
+        <v>163.9387565915235</v>
+      </c>
+      <c r="O4" t="n">
+        <v>377.1946410243807</v>
+      </c>
+      <c r="P4" t="n">
         <v>35484.24227125501</v>
       </c>
-      <c r="C4" t="n">
+      <c r="Q4" t="n">
         <v>1880.958511657501</v>
       </c>
-      <c r="D4" t="n">
+      <c r="R4" t="n">
         <v>5888.374700768083</v>
       </c>
-      <c r="E4" t="n">
+      <c r="S4" t="n">
         <v>2332.684259156637</v>
       </c>
-      <c r="F4" t="n">
+      <c r="T4" t="n">
         <v>217.6504166995609</v>
       </c>
-      <c r="G4" t="n">
+      <c r="U4" t="n">
         <v>755.5082520621531</v>
       </c>
-      <c r="H4" t="n">
+      <c r="V4" t="n">
         <v>40.58656233187056</v>
       </c>
-      <c r="I4" t="n">
+      <c r="W4" t="n">
         <v>3088.19251121879</v>
       </c>
-      <c r="J4" t="n">
+      <c r="X4" t="n">
         <v>258.2369790314315</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Y4" t="n">
         <v>361.8473872110301</v>
       </c>
-      <c r="L4" t="n">
+      <c r="Z4" t="n">
         <v>18.38132349255233</v>
       </c>
-      <c r="M4" t="n">
+      <c r="AA4" t="n">
         <v>248.7023298458352</v>
       </c>
-      <c r="N4" t="n">
+      <c r="AB4" t="n">
         <v>38.25648438828252</v>
       </c>
-      <c r="O4" t="n">
+      <c r="AC4" t="n">
         <v>36780.1979503933</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AD4" t="n">
         <v>1992.028140667731</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AE4" t="n">
         <v>7154.822358240179</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AF4" t="n">
         <v>2948.828619248014</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AG4" t="n">
         <v>267.292861809021</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AH4" t="n">
         <v>788.048588688236</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AI4" t="n">
         <v>40.26209312466816</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AJ4" t="n">
         <v>3736.87720793625</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AK4" t="n">
         <v>307.5549549336891</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AL4" t="n">
         <v>421.8435857518091</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AM4" t="n">
         <v>19.83861588460884</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AN4" t="n">
         <v>297.9271477576575</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AO4" t="n">
         <v>53.43314163374065</v>
       </c>
     </row>
@@ -832,81 +1028,123 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>103564.3704026953</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1551.521839013451</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14512.91206315204</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5792.269768735437</v>
+      </c>
+      <c r="F5" t="n">
+        <v>551.9368935505704</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1889.752318844328</v>
+      </c>
+      <c r="H5" t="n">
+        <v>106.0861770758557</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7682.022087579765</v>
+      </c>
+      <c r="J5" t="n">
+        <v>658.023070626426</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1081.202309123118</v>
+      </c>
+      <c r="L5" t="n">
+        <v>68.87598974575324</v>
+      </c>
+      <c r="M5" t="n">
+        <v>876.0048334131432</v>
+      </c>
+      <c r="N5" t="n">
+        <v>160.2042581657878</v>
+      </c>
+      <c r="O5" t="n">
+        <v>380.0855810669514</v>
+      </c>
+      <c r="P5" t="n">
         <v>34100.70438126235</v>
       </c>
-      <c r="C5" t="n">
+      <c r="Q5" t="n">
         <v>1854.647081284657</v>
       </c>
-      <c r="D5" t="n">
+      <c r="R5" t="n">
         <v>5517.809593061183</v>
       </c>
-      <c r="E5" t="n">
+      <c r="S5" t="n">
         <v>2375.078880003141</v>
       </c>
-      <c r="F5" t="n">
+      <c r="T5" t="n">
         <v>221.8978829033249</v>
       </c>
-      <c r="G5" t="n">
+      <c r="U5" t="n">
         <v>929.5485377695213</v>
       </c>
-      <c r="H5" t="n">
+      <c r="V5" t="n">
         <v>46.53828124222364</v>
       </c>
-      <c r="I5" t="n">
+      <c r="W5" t="n">
         <v>3304.627417772662</v>
       </c>
-      <c r="J5" t="n">
+      <c r="X5" t="n">
         <v>268.4361641455485</v>
       </c>
-      <c r="K5" t="n">
+      <c r="Y5" t="n">
         <v>339.8972796272301</v>
       </c>
-      <c r="L5" t="n">
+      <c r="Z5" t="n">
         <v>21.51944074928572</v>
       </c>
-      <c r="M5" t="n">
+      <c r="AA5" t="n">
         <v>238.1285310880648</v>
       </c>
-      <c r="N5" t="n">
+      <c r="AB5" t="n">
         <v>37.64068946273488</v>
       </c>
-      <c r="O5" t="n">
+      <c r="AC5" t="n">
         <v>39473.22625264357</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AD5" t="n">
         <v>1990.921889583389</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AE5" t="n">
         <v>7369.528343201314</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AF5" t="n">
         <v>2943.680000146353</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AG5" t="n">
         <v>264.3955074286948</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AH5" t="n">
         <v>784.9648119116098</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AI5" t="n">
         <v>40.84805098810694</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AJ5" t="n">
         <v>3728.644812057963</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AK5" t="n">
         <v>305.2435584168017</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AL5" t="n">
         <v>439.7381859854298</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AM5" t="n">
         <v>21.65936976095136</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AN5" t="n">
         <v>321.8437436846468</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AO5" t="n">
         <v>51.88609274518135</v>
       </c>
     </row>
@@ -917,81 +1155,123 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39646.06023635308</v>
+        <v>103023.2742244173</v>
       </c>
       <c r="C6" t="n">
+        <v>1487.492066670157</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14602.80828327185</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5541.180702304098</v>
+      </c>
+      <c r="F6" t="n">
+        <v>528.7011809192397</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1663.620984651224</v>
+      </c>
+      <c r="H6" t="n">
+        <v>94.50836555791643</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7204.801686955322</v>
+      </c>
+      <c r="J6" t="n">
+        <v>623.2095464771561</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1114.444199414344</v>
+      </c>
+      <c r="L6" t="n">
+        <v>66.63744206785871</v>
+      </c>
+      <c r="M6" t="n">
+        <v>886.4634998151075</v>
+      </c>
+      <c r="N6" t="n">
+        <v>163.2406807953443</v>
+      </c>
+      <c r="O6" t="n">
+        <v>362.2831667259499</v>
+      </c>
+      <c r="P6" t="n">
+        <v>39646.06023635307</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1731.825397339773</v>
       </c>
-      <c r="D6" t="n">
+      <c r="R6" t="n">
         <v>6276.889448452066</v>
       </c>
-      <c r="E6" t="n">
+      <c r="S6" t="n">
         <v>2356.117867837679</v>
       </c>
-      <c r="F6" t="n">
+      <c r="T6" t="n">
         <v>224.527339752445</v>
       </c>
-      <c r="G6" t="n">
+      <c r="U6" t="n">
         <v>802.2255451798718</v>
       </c>
-      <c r="H6" t="n">
+      <c r="V6" t="n">
         <v>41.05782799929204</v>
       </c>
-      <c r="I6" t="n">
+      <c r="W6" t="n">
         <v>3158.343413017551</v>
       </c>
-      <c r="J6" t="n">
+      <c r="X6" t="n">
         <v>265.5851677517371</v>
       </c>
-      <c r="K6" t="n">
-        <v>410.8347150743053</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="Y6" t="n">
+        <v>410.8347150743052</v>
+      </c>
+      <c r="Z6" t="n">
         <v>23.39679282424523</v>
       </c>
-      <c r="M6" t="n">
+      <c r="AA6" t="n">
         <v>285.7077059216617</v>
       </c>
-      <c r="N6" t="n">
+      <c r="AB6" t="n">
         <v>43.32505778466864</v>
       </c>
-      <c r="O6" t="n">
+      <c r="AC6" t="n">
         <v>34908.53092080668</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AD6" t="n">
         <v>1890.359838801284</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AE6" t="n">
         <v>6865.807991564596</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AF6" t="n">
         <v>2800.136696536117</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AG6" t="n">
         <v>253.3993736366879</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AH6" t="n">
         <v>744.168844886735</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AI6" t="n">
         <v>37.75336290024672</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AJ6" t="n">
         <v>3544.305541422851</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AK6" t="n">
         <v>291.1527365369346</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AL6" t="n">
         <v>412.8837792783438</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AM6" t="n">
         <v>20.97936978465374</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AN6" t="n">
         <v>289.7871433973178</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AO6" t="n">
         <v>52.64790358492603</v>
       </c>
     </row>
@@ -1002,81 +1282,123 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>102444.2953685543</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1503.891627177293</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14519.549050251</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5689.780043714532</v>
+      </c>
+      <c r="F7" t="n">
+        <v>550.3208235805331</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1765.811113567519</v>
+      </c>
+      <c r="H7" t="n">
+        <v>101.4311460365901</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7455.59115728205</v>
+      </c>
+      <c r="J7" t="n">
+        <v>651.7519696171232</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1089.613195850603</v>
+      </c>
+      <c r="L7" t="n">
+        <v>68.69729681216664</v>
+      </c>
+      <c r="M7" t="n">
+        <v>889.1684878536697</v>
+      </c>
+      <c r="N7" t="n">
+        <v>167.4664996588078</v>
+      </c>
+      <c r="O7" t="n">
+        <v>365.6265090135709</v>
+      </c>
+      <c r="P7" t="n">
         <v>36358.13893829595</v>
       </c>
-      <c r="C7" t="n">
+      <c r="Q7" t="n">
         <v>1807.981784210755</v>
       </c>
-      <c r="D7" t="n">
+      <c r="R7" t="n">
         <v>5985.077404213611</v>
       </c>
-      <c r="E7" t="n">
+      <c r="S7" t="n">
         <v>2417.558780912058</v>
       </c>
-      <c r="F7" t="n">
+      <c r="T7" t="n">
         <v>229.4628533327644</v>
       </c>
-      <c r="G7" t="n">
+      <c r="U7" t="n">
         <v>898.7915950505409</v>
       </c>
-      <c r="H7" t="n">
+      <c r="V7" t="n">
         <v>45.58608596697216</v>
       </c>
-      <c r="I7" t="n">
+      <c r="W7" t="n">
         <v>3316.350375962599</v>
       </c>
-      <c r="J7" t="n">
+      <c r="X7" t="n">
         <v>275.0489392997365</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Y7" t="n">
         <v>365.720213575021</v>
       </c>
-      <c r="L7" t="n">
+      <c r="Z7" t="n">
         <v>21.38008453512395</v>
       </c>
-      <c r="M7" t="n">
+      <c r="AA7" t="n">
         <v>259.2251530772582</v>
       </c>
-      <c r="N7" t="n">
+      <c r="AB7" t="n">
         <v>40.94637354770509</v>
       </c>
-      <c r="O7" t="n">
+      <c r="AC7" t="n">
         <v>36407.47780160918</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AD7" t="n">
         <v>1891.337325943461</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AE7" t="n">
         <v>6907.031579991382</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AF7" t="n">
         <v>2813.374786565848</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AG7" t="n">
         <v>258.87205556764</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AH7" t="n">
         <v>722.5428153709096</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AI7" t="n">
         <v>38.12444734941744</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AJ7" t="n">
         <v>3535.917601936758</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AK7" t="n">
         <v>296.9965029170575</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AL7" t="n">
         <v>427.6473408368817</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AM7" t="n">
         <v>21.02143246890435</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AN7" t="n">
         <v>312.9148814111921</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AO7" t="n">
         <v>54.83442849173797</v>
       </c>
     </row>
@@ -1087,81 +1409,123 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>103353.7037114331</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1564.693382155732</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14575.93299069138</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5361.061407415769</v>
+      </c>
+      <c r="F8" t="n">
+        <v>498.3330152235582</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1515.057996270007</v>
+      </c>
+      <c r="H8" t="n">
+        <v>87.62672575136101</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6876.119403685776</v>
+      </c>
+      <c r="J8" t="n">
+        <v>585.9597409749192</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1131.80645867918</v>
+      </c>
+      <c r="L8" t="n">
+        <v>60.23213729913469</v>
+      </c>
+      <c r="M8" t="n">
+        <v>914.0696161757528</v>
+      </c>
+      <c r="N8" t="n">
+        <v>161.9943782121135</v>
+      </c>
+      <c r="O8" t="n">
+        <v>371.7036278564892</v>
+      </c>
+      <c r="P8" t="n">
         <v>31605.90624336577</v>
       </c>
-      <c r="C8" t="n">
+      <c r="Q8" t="n">
         <v>1859.291837922404</v>
       </c>
-      <c r="D8" t="n">
+      <c r="R8" t="n">
         <v>5415.949868626639</v>
       </c>
-      <c r="E8" t="n">
+      <c r="S8" t="n">
         <v>2146.796109794234</v>
       </c>
-      <c r="F8" t="n">
+      <c r="T8" t="n">
         <v>193.4979378083607</v>
       </c>
-      <c r="G8" t="n">
+      <c r="U8" t="n">
         <v>684.9675515252789</v>
       </c>
-      <c r="H8" t="n">
+      <c r="V8" t="n">
         <v>35.29940602544115</v>
       </c>
-      <c r="I8" t="n">
+      <c r="W8" t="n">
         <v>2831.763661319513</v>
       </c>
-      <c r="J8" t="n">
+      <c r="X8" t="n">
         <v>228.7973438338019</v>
       </c>
-      <c r="K8" t="n">
+      <c r="Y8" t="n">
         <v>343.7167678641451</v>
       </c>
-      <c r="L8" t="n">
+      <c r="Z8" t="n">
         <v>17.66452003042308</v>
       </c>
-      <c r="M8" t="n">
+      <c r="AA8" t="n">
         <v>234.4087163194565</v>
       </c>
-      <c r="N8" t="n">
+      <c r="AB8" t="n">
         <v>36.99159555174045</v>
       </c>
-      <c r="O8" t="n">
+      <c r="AC8" t="n">
         <v>41290.23154689803</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AD8" t="n">
         <v>1945.316598437462</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AE8" t="n">
         <v>7509.613927921359</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AF8" t="n">
         <v>2771.697775182703</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AG8" t="n">
         <v>252.0583147842281</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AH8" t="n">
         <v>714.1630892056957</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AI8" t="n">
         <v>36.09646591068713</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AJ8" t="n">
         <v>3485.860864388399</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AK8" t="n">
         <v>288.1547806949152</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AL8" t="n">
         <v>487.4037879394531</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AM8" t="n">
         <v>20.97422749071369</v>
       </c>
-      <c r="Z8" t="n">
-        <v>360.0535240768067</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AN8" t="n">
+        <v>360.0535240768066</v>
+      </c>
+      <c r="AO8" t="n">
         <v>57.59071331936005</v>
       </c>
     </row>
@@ -1172,81 +1536,123 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>100979.5161143436</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1452.863417501379</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14393.52198890105</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5554.438445840651</v>
+      </c>
+      <c r="F9" t="n">
+        <v>529.7809501261138</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1740.863257419739</v>
+      </c>
+      <c r="H9" t="n">
+        <v>98.69163610705739</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7295.30170326039</v>
+      </c>
+      <c r="J9" t="n">
+        <v>628.4725862331712</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1107.766202998839</v>
+      </c>
+      <c r="L9" t="n">
+        <v>67.96007727916951</v>
+      </c>
+      <c r="M9" t="n">
+        <v>891.050092617062</v>
+      </c>
+      <c r="N9" t="n">
+        <v>171.5742698134288</v>
+      </c>
+      <c r="O9" t="n">
+        <v>356.0795676694103</v>
+      </c>
+      <c r="P9" t="n">
         <v>31464.44519527635</v>
       </c>
-      <c r="C9" t="n">
+      <c r="Q9" t="n">
         <v>1740.918651617048</v>
       </c>
-      <c r="D9" t="n">
+      <c r="R9" t="n">
         <v>5369.903901716403</v>
       </c>
-      <c r="E9" t="n">
+      <c r="S9" t="n">
         <v>2233.279084587648</v>
       </c>
-      <c r="F9" t="n">
+      <c r="T9" t="n">
         <v>210.8894994094385</v>
       </c>
-      <c r="G9" t="n">
+      <c r="U9" t="n">
         <v>869.9235218486979</v>
       </c>
-      <c r="H9" t="n">
+      <c r="V9" t="n">
         <v>42.87938996116742</v>
       </c>
-      <c r="I9" t="n">
+      <c r="W9" t="n">
         <v>3103.202606436345</v>
       </c>
-      <c r="J9" t="n">
+      <c r="X9" t="n">
         <v>253.768889370606</v>
       </c>
-      <c r="K9" t="n">
+      <c r="Y9" t="n">
         <v>340.205976471261</v>
       </c>
-      <c r="L9" t="n">
+      <c r="Z9" t="n">
         <v>20.66930719191754</v>
       </c>
-      <c r="M9" t="n">
+      <c r="AA9" t="n">
         <v>232.7973257127183</v>
       </c>
-      <c r="N9" t="n">
+      <c r="AB9" t="n">
         <v>39.1377190073405</v>
       </c>
-      <c r="O9" t="n">
+      <c r="AC9" t="n">
         <v>38508.24554179802</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AD9" t="n">
         <v>1857.53173634755</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AE9" t="n">
         <v>7363.192320251139</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AF9" t="n">
         <v>2833.093076738307</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AG9" t="n">
         <v>263.0473135996494</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AH9" t="n">
         <v>718.3753891865923</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AI9" t="n">
         <v>39.18332234294527</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AJ9" t="n">
         <v>3551.468465924899</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AK9" t="n">
         <v>302.2306359425947</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AL9" t="n">
         <v>460.4733788310079</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AM9" t="n">
         <v>23.07159042693753</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AN9" t="n">
         <v>331.4954885789376</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AO9" t="n">
         <v>59.10092253621826</v>
       </c>
     </row>
@@ -1257,82 +1663,124 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>104391.6688089673</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1517.86202787825</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14946.62311028526</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5684.259220786017</v>
+      </c>
+      <c r="F10" t="n">
+        <v>548.0166347648722</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1722.830295196785</v>
+      </c>
+      <c r="H10" t="n">
+        <v>102.6068970387346</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7407.089515982802</v>
+      </c>
+      <c r="J10" t="n">
+        <v>650.6235318036067</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1131.97690350793</v>
+      </c>
+      <c r="L10" t="n">
+        <v>65.45892050897052</v>
+      </c>
+      <c r="M10" t="n">
+        <v>909.0338177123507</v>
+      </c>
+      <c r="N10" t="n">
+        <v>160.2262140025493</v>
+      </c>
+      <c r="O10" t="n">
+        <v>364.1192755902589</v>
+      </c>
+      <c r="P10" t="n">
         <v>33513.946478248</v>
       </c>
-      <c r="C10" t="n">
+      <c r="Q10" t="n">
         <v>1811.501018843719</v>
       </c>
-      <c r="D10" t="n">
+      <c r="R10" t="n">
         <v>5665.29308393523</v>
       </c>
-      <c r="E10" t="n">
+      <c r="S10" t="n">
         <v>2202.494655653333</v>
       </c>
-      <c r="F10" t="n">
+      <c r="T10" t="n">
         <v>214.242092434757</v>
       </c>
-      <c r="G10" t="n">
-        <v>777.1435966056288</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="U10" t="n">
+        <v>777.1435966056287</v>
+      </c>
+      <c r="V10" t="n">
         <v>41.50003549465603</v>
       </c>
-      <c r="I10" t="n">
+      <c r="W10" t="n">
         <v>2979.638252258962</v>
       </c>
-      <c r="J10" t="n">
+      <c r="X10" t="n">
         <v>255.742127929413</v>
       </c>
-      <c r="K10" t="n">
+      <c r="Y10" t="n">
         <v>364.319503245029</v>
       </c>
-      <c r="L10" t="n">
+      <c r="Z10" t="n">
         <v>20.39888783959255</v>
       </c>
-      <c r="M10" t="n">
+      <c r="AA10" t="n">
         <v>255.2853602289634</v>
       </c>
-      <c r="N10" t="n">
+      <c r="AB10" t="n">
         <v>38.3774201091088</v>
       </c>
-      <c r="O10" t="n">
+      <c r="AC10" t="n">
         <v>38921.63672797378</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AD10" t="n">
         <v>1959.773313278062</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AE10" t="n">
         <v>7540.440555059147</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AF10" t="n">
         <v>2972.786720668893</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AG10" t="n">
         <v>271.2730752658385</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AH10" t="n">
         <v>810.4784322562251</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AI10" t="n">
         <v>43.04686734355362</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AJ10" t="n">
         <v>3783.265152925118</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AK10" t="n">
         <v>314.3199426093922</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AL10" t="n">
         <v>445.7226769689055</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AM10" t="n">
         <v>21.07112142796846</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AN10" t="n">
         <v>323.0740019853761</v>
       </c>
-      <c r="AA10" t="n">
-        <v>55.12907432270943</v>
+      <c r="AO10" t="n">
+        <v>55.12907432270941</v>
       </c>
     </row>
     <row r="11">
@@ -1342,81 +1790,123 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>100136.5472862564</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1493.159766794121</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13457.44649099998</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5060.400724571868</v>
+      </c>
+      <c r="F11" t="n">
+        <v>494.3682082421266</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1582.079344201348</v>
+      </c>
+      <c r="H11" t="n">
+        <v>89.14314099572834</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6642.480068773216</v>
+      </c>
+      <c r="J11" t="n">
+        <v>583.5113492378549</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1069.238160473992</v>
+      </c>
+      <c r="L11" t="n">
+        <v>65.05744796519122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>875.9466547857038</v>
+      </c>
+      <c r="N11" t="n">
+        <v>161.3184582000445</v>
+      </c>
+      <c r="O11" t="n">
+        <v>374.4812531741433</v>
+      </c>
+      <c r="P11" t="n">
         <v>33940.34059201585</v>
       </c>
-      <c r="C11" t="n">
+      <c r="Q11" t="n">
         <v>1861.511399250628</v>
       </c>
-      <c r="D11" t="n">
+      <c r="R11" t="n">
         <v>5298.681368812443</v>
       </c>
-      <c r="E11" t="n">
+      <c r="S11" t="n">
         <v>2147.141282704585</v>
       </c>
-      <c r="F11" t="n">
+      <c r="T11" t="n">
         <v>203.4931030151275</v>
       </c>
-      <c r="G11" t="n">
+      <c r="U11" t="n">
         <v>783.0409406199378</v>
       </c>
-      <c r="H11" t="n">
+      <c r="V11" t="n">
         <v>38.13966386616059</v>
       </c>
-      <c r="I11" t="n">
+      <c r="W11" t="n">
         <v>2930.182223324523</v>
       </c>
-      <c r="J11" t="n">
+      <c r="X11" t="n">
         <v>241.6327668812881</v>
       </c>
-      <c r="K11" t="n">
+      <c r="Y11" t="n">
         <v>349.0684929813748</v>
       </c>
-      <c r="L11" t="n">
+      <c r="Z11" t="n">
         <v>21.09285803181702</v>
       </c>
-      <c r="M11" t="n">
+      <c r="AA11" t="n">
         <v>244.1856650483025</v>
       </c>
-      <c r="N11" t="n">
+      <c r="AB11" t="n">
         <v>38.52134661728381</v>
       </c>
-      <c r="O11" t="n">
+      <c r="AC11" t="n">
         <v>38455.13090360563</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AD11" t="n">
         <v>1938.001745162992</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AE11" t="n">
         <v>6843.838926569552</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AF11" t="n">
         <v>2532.040034475387</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AG11" t="n">
         <v>240.0098893038447</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AH11" t="n">
         <v>683.5321073178033</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AI11" t="n">
         <v>34.70033577055932</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AJ11" t="n">
         <v>3215.57214179319</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AK11" t="n">
         <v>274.710225074404</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AL11" t="n">
         <v>438.3241279791899</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AM11" t="n">
         <v>20.76925734135388</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AN11" t="n">
         <v>324.4991860809494</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AO11" t="n">
         <v>54.66262717886347</v>
       </c>
     </row>
@@ -1427,81 +1917,123 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>104118.7733058125</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1510.989840573465</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15220.55485292373</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5899.615413390527</v>
+      </c>
+      <c r="F12" t="n">
+        <v>555.531082602881</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1766.066591377071</v>
+      </c>
+      <c r="H12" t="n">
+        <v>101.8178244338653</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7665.682004767598</v>
+      </c>
+      <c r="J12" t="n">
+        <v>657.3489070367463</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1096.440048285272</v>
+      </c>
+      <c r="L12" t="n">
+        <v>60.9505161468315</v>
+      </c>
+      <c r="M12" t="n">
+        <v>926.7357934849709</v>
+      </c>
+      <c r="N12" t="n">
+        <v>156.6198875940554</v>
+      </c>
+      <c r="O12" t="n">
+        <v>367.5001709390592</v>
+      </c>
+      <c r="P12" t="n">
         <v>36502.07701476299</v>
       </c>
-      <c r="C12" t="n">
+      <c r="Q12" t="n">
         <v>1837.52173324309</v>
       </c>
-      <c r="D12" t="n">
+      <c r="R12" t="n">
         <v>5928.32859764842</v>
       </c>
-      <c r="E12" t="n">
+      <c r="S12" t="n">
         <v>2397.422269792057</v>
       </c>
-      <c r="F12" t="n">
+      <c r="T12" t="n">
         <v>225.366050601241</v>
       </c>
-      <c r="G12" t="n">
+      <c r="U12" t="n">
         <v>877.9936601315444</v>
       </c>
-      <c r="H12" t="n">
+      <c r="V12" t="n">
         <v>44.22366304192922</v>
       </c>
-      <c r="I12" t="n">
+      <c r="W12" t="n">
         <v>3275.415929923602</v>
       </c>
-      <c r="J12" t="n">
+      <c r="X12" t="n">
         <v>269.5897136431702</v>
       </c>
-      <c r="K12" t="n">
+      <c r="Y12" t="n">
         <v>364.1309710068934</v>
       </c>
-      <c r="L12" t="n">
+      <c r="Z12" t="n">
         <v>18.7411785677657</v>
       </c>
-      <c r="M12" t="n">
+      <c r="AA12" t="n">
         <v>268.235899736037</v>
       </c>
-      <c r="N12" t="n">
+      <c r="AB12" t="n">
         <v>37.64479311658384</v>
       </c>
-      <c r="O12" t="n">
+      <c r="AC12" t="n">
         <v>39517.86857413854</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AD12" t="n">
         <v>1915.968759269653</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AE12" t="n">
         <v>7693.331111886352</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AF12" t="n">
         <v>3061.375031143359</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AG12" t="n">
         <v>274.9718657804802</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AH12" t="n">
         <v>764.7971377149958</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AI12" t="n">
         <v>40.33377180554461</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AJ12" t="n">
         <v>3826.172168858355</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AK12" t="n">
         <v>315.3056375860248</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AL12" t="n">
         <v>446.7155480379605</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AM12" t="n">
         <v>20.13852471319555</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AN12" t="n">
         <v>335.701507240814</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AO12" t="n">
         <v>55.59467916757411</v>
       </c>
     </row>
@@ -1512,81 +2044,123 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>101839.8775583132</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1507.760920259545</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13980.28102663716</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5243.552825397839</v>
+      </c>
+      <c r="F13" t="n">
+        <v>515.8326383175994</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1783.051710583493</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100.4724917353281</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7026.604535981333</v>
+      </c>
+      <c r="J13" t="n">
+        <v>616.3051300529274</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1048.573955380417</v>
+      </c>
+      <c r="L13" t="n">
+        <v>60.72400577865211</v>
+      </c>
+      <c r="M13" t="n">
+        <v>853.087486725337</v>
+      </c>
+      <c r="N13" t="n">
+        <v>161.3850472428049</v>
+      </c>
+      <c r="O13" t="n">
+        <v>375.8482922598401</v>
+      </c>
+      <c r="P13" t="n">
         <v>40156.67532031846</v>
       </c>
-      <c r="C13" t="n">
+      <c r="Q13" t="n">
         <v>1817.986248171062</v>
       </c>
-      <c r="D13" t="n">
+      <c r="R13" t="n">
         <v>6234.815609214259</v>
       </c>
-      <c r="E13" t="n">
+      <c r="S13" t="n">
         <v>2373.669665656903</v>
       </c>
-      <c r="F13" t="n">
+      <c r="T13" t="n">
         <v>230.9700265711305</v>
       </c>
-      <c r="G13" t="n">
+      <c r="U13" t="n">
         <v>876.2101574402163</v>
       </c>
-      <c r="H13" t="n">
+      <c r="V13" t="n">
         <v>44.15001573306445</v>
       </c>
-      <c r="I13" t="n">
+      <c r="W13" t="n">
         <v>3249.87982309712</v>
       </c>
-      <c r="J13" t="n">
+      <c r="X13" t="n">
         <v>275.120042304195</v>
       </c>
-      <c r="K13" t="n">
+      <c r="Y13" t="n">
         <v>413.904882462659</v>
       </c>
-      <c r="L13" t="n">
+      <c r="Z13" t="n">
         <v>23.13878715715929</v>
       </c>
-      <c r="M13" t="n">
+      <c r="AA13" t="n">
         <v>302.7273809483326</v>
       </c>
-      <c r="N13" t="n">
+      <c r="AB13" t="n">
         <v>46.75249675551085</v>
       </c>
-      <c r="O13" t="n">
+      <c r="AC13" t="n">
         <v>31823.55700741104</v>
       </c>
-      <c r="P13" t="n">
+      <c r="AD13" t="n">
         <v>2040.332863187485</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AE13" t="n">
         <v>6209.944891016564</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AF13" t="n">
         <v>2464.919657444004</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AG13" t="n">
         <v>225.740040422021</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AH13" t="n">
         <v>758.45564569242</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AI13" t="n">
         <v>38.4333417579018</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AJ13" t="n">
         <v>3223.375303136424</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AK13" t="n">
         <v>264.1733821799228</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AL13" t="n">
         <v>348.9424165796902</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AM13" t="n">
         <v>16.88850805807818</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AN13" t="n">
         <v>245.9233254892496</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AO13" t="n">
         <v>43.45068313148786</v>
       </c>
     </row>
@@ -1597,81 +2171,123 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>102556.2459814869</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1508.106931345347</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14343.81592104873</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5452.267653479005</v>
+      </c>
+      <c r="F14" t="n">
+        <v>542.7292618705151</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1801.424163281946</v>
+      </c>
+      <c r="H14" t="n">
+        <v>105.5257937671766</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7253.69181676095</v>
+      </c>
+      <c r="J14" t="n">
+        <v>648.2550556376916</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1066.739455568492</v>
+      </c>
+      <c r="L14" t="n">
+        <v>68.19471280446778</v>
+      </c>
+      <c r="M14" t="n">
+        <v>872.8788887545703</v>
+      </c>
+      <c r="N14" t="n">
+        <v>161.5149670675185</v>
+      </c>
+      <c r="O14" t="n">
+        <v>376.4175273841593</v>
+      </c>
+      <c r="P14" t="n">
         <v>32425.71940578183</v>
       </c>
-      <c r="C14" t="n">
+      <c r="Q14" t="n">
         <v>1855.624427918973</v>
       </c>
-      <c r="D14" t="n">
+      <c r="R14" t="n">
         <v>5282.174417273729</v>
       </c>
-      <c r="E14" t="n">
+      <c r="S14" t="n">
         <v>2053.336525466998</v>
       </c>
-      <c r="F14" t="n">
+      <c r="T14" t="n">
         <v>201.8506902583196</v>
       </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>775.8438309405923</v>
       </c>
-      <c r="H14" t="n">
+      <c r="V14" t="n">
         <v>39.51921550734728</v>
       </c>
-      <c r="I14" t="n">
+      <c r="W14" t="n">
         <v>2829.180356407589</v>
       </c>
-      <c r="J14" t="n">
+      <c r="X14" t="n">
         <v>241.3699057656668</v>
       </c>
-      <c r="K14" t="n">
+      <c r="Y14" t="n">
         <v>329.6289979633131</v>
       </c>
-      <c r="L14" t="n">
+      <c r="Z14" t="n">
         <v>19.44230036257656</v>
       </c>
-      <c r="M14" t="n">
+      <c r="AA14" t="n">
         <v>233.9987242738838</v>
       </c>
-      <c r="N14" t="n">
+      <c r="AB14" t="n">
         <v>36.84466137779822</v>
       </c>
-      <c r="O14" t="n">
+      <c r="AC14" t="n">
         <v>38711.87613562083</v>
       </c>
-      <c r="P14" t="n">
+      <c r="AD14" t="n">
         <v>1986.705935545963</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="AE14" t="n">
         <v>7476.469610939856</v>
       </c>
-      <c r="R14" t="n">
+      <c r="AF14" t="n">
         <v>2978.01579503979</v>
       </c>
-      <c r="S14" t="n">
+      <c r="AG14" t="n">
         <v>283.3000444634479</v>
       </c>
-      <c r="T14" t="n">
+      <c r="AH14" t="n">
         <v>885.2295667020461</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AI14" t="n">
         <v>47.47628350845901</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AJ14" t="n">
         <v>3863.245361741836</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AK14" t="n">
         <v>330.776327971907</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AL14" t="n">
         <v>435.0139767833091</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AM14" t="n">
         <v>22.31023797074827</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AN14" t="n">
         <v>317.7655674111751</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AO14" t="n">
         <v>57.13581741028703</v>
       </c>
     </row>
@@ -1682,81 +2298,123 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>106668.5722039802</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1595.618676267559</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16535.98594352568</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6467.32669131944</v>
+      </c>
+      <c r="F15" t="n">
+        <v>596.8470913793082</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1698.983280521631</v>
+      </c>
+      <c r="H15" t="n">
+        <v>106.5686141539095</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8166.30997184107</v>
+      </c>
+      <c r="J15" t="n">
+        <v>703.4157055332176</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1131.921719500299</v>
+      </c>
+      <c r="L15" t="n">
+        <v>61.94690762772431</v>
+      </c>
+      <c r="M15" t="n">
+        <v>895.411832175791</v>
+      </c>
+      <c r="N15" t="n">
+        <v>176.3499472464806</v>
+      </c>
+      <c r="O15" t="n">
+        <v>374.6833966007985</v>
+      </c>
+      <c r="P15" t="n">
         <v>28519.61474490567</v>
       </c>
-      <c r="C15" t="n">
+      <c r="Q15" t="n">
         <v>1910.610525942295</v>
       </c>
-      <c r="D15" t="n">
+      <c r="R15" t="n">
         <v>4809.618800206114</v>
       </c>
-      <c r="E15" t="n">
+      <c r="S15" t="n">
         <v>1903.671621081187</v>
       </c>
-      <c r="F15" t="n">
+      <c r="T15" t="n">
         <v>182.6053615927239</v>
       </c>
-      <c r="G15" t="n">
+      <c r="U15" t="n">
         <v>595.0239873038804</v>
       </c>
-      <c r="H15" t="n">
+      <c r="V15" t="n">
         <v>33.79578918922841</v>
       </c>
-      <c r="I15" t="n">
-        <v>2498.695608385068</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="W15" t="n">
+        <v>2498.695608385067</v>
+      </c>
+      <c r="X15" t="n">
         <v>216.4011507819523</v>
       </c>
-      <c r="K15" t="n">
+      <c r="Y15" t="n">
         <v>308.1760603677198</v>
       </c>
-      <c r="L15" t="n">
+      <c r="Z15" t="n">
         <v>16.80013792560538</v>
       </c>
-      <c r="M15" t="n">
+      <c r="AA15" t="n">
         <v>202.9881307295983</v>
       </c>
-      <c r="N15" t="n">
+      <c r="AB15" t="n">
         <v>35.09979517951745</v>
       </c>
-      <c r="O15" t="n">
+      <c r="AC15" t="n">
         <v>44643.96966039926</v>
       </c>
-      <c r="P15" t="n">
+      <c r="AD15" t="n">
         <v>2171.232858706177</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="AE15" t="n">
         <v>9897.517869067144</v>
       </c>
-      <c r="R15" t="n">
+      <c r="AF15" t="n">
         <v>3952.959374010981</v>
       </c>
-      <c r="S15" t="n">
+      <c r="AG15" t="n">
         <v>346.9189799404267</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AH15" t="n">
         <v>978.1714342064328</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AI15" t="n">
         <v>54.23182381672674</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AJ15" t="n">
         <v>4931.130808217415</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AK15" t="n">
         <v>401.1508037571534</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AL15" t="n">
         <v>494.4376847470268</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AM15" t="n">
         <v>20.95055356478668</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AN15" t="n">
         <v>355.0750977849622</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AO15" t="n">
         <v>64.22941451013934</v>
       </c>
     </row>
@@ -1767,81 +2425,123 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>101917.9890131953</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1426.843437123174</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13906.41300231908</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5061.356777167891</v>
+      </c>
+      <c r="F16" t="n">
+        <v>489.0187038574812</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1260.694217714447</v>
+      </c>
+      <c r="H16" t="n">
+        <v>80.20562064955143</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6322.050994882338</v>
+      </c>
+      <c r="J16" t="n">
+        <v>569.2243245070327</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1032.227820217626</v>
+      </c>
+      <c r="L16" t="n">
+        <v>55.12025232813625</v>
+      </c>
+      <c r="M16" t="n">
+        <v>851.9885516828759</v>
+      </c>
+      <c r="N16" t="n">
+        <v>142.0633193422788</v>
+      </c>
+      <c r="O16" t="n">
+        <v>346.8720721883573</v>
+      </c>
+      <c r="P16" t="n">
         <v>32926.1398002757</v>
       </c>
-      <c r="C16" t="n">
+      <c r="Q16" t="n">
         <v>1720.453513164296</v>
       </c>
-      <c r="D16" t="n">
+      <c r="R16" t="n">
         <v>4999.930198072015</v>
       </c>
-      <c r="E16" t="n">
+      <c r="S16" t="n">
         <v>1827.791502924663</v>
       </c>
-      <c r="F16" t="n">
+      <c r="T16" t="n">
         <v>175.9014446553394</v>
       </c>
-      <c r="G16" t="n">
+      <c r="U16" t="n">
         <v>508.4199466184727</v>
       </c>
-      <c r="H16" t="n">
+      <c r="V16" t="n">
         <v>28.54083355808048</v>
       </c>
-      <c r="I16" t="n">
+      <c r="W16" t="n">
         <v>2336.211449543136</v>
       </c>
-      <c r="J16" t="n">
+      <c r="X16" t="n">
         <v>204.4422782134199</v>
       </c>
-      <c r="K16" t="n">
+      <c r="Y16" t="n">
         <v>338.8000625852034</v>
       </c>
-      <c r="L16" t="n">
+      <c r="Z16" t="n">
         <v>16.80013697868846</v>
       </c>
-      <c r="M16" t="n">
+      <c r="AA16" t="n">
         <v>241.0065107397579</v>
       </c>
-      <c r="N16" t="n">
+      <c r="AB16" t="n">
         <v>34.04714683466443</v>
       </c>
-      <c r="O16" t="n">
+      <c r="AC16" t="n">
         <v>38543.63801007396</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AD16" t="n">
         <v>1926.667751126596</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AE16" t="n">
         <v>7500.352122257292</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AF16" t="n">
         <v>2842.581928548952</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AG16" t="n">
         <v>258.561167233735</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AH16" t="n">
         <v>659.5872560049235</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AI16" t="n">
         <v>34.71088801207301</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AJ16" t="n">
         <v>3502.169184553875</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AK16" t="n">
         <v>293.272055245808</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AL16" t="n">
         <v>417.7652944494635</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AM16" t="n">
         <v>18.11669368568539</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AN16" t="n">
         <v>309.0392246559265</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AO16" t="n">
         <v>48.512224809458</v>
       </c>
     </row>
@@ -1852,81 +2552,123 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>102896.4196890939</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1505.395541175328</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14927.93975977654</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5772.667390843967</v>
+      </c>
+      <c r="F17" t="n">
+        <v>553.6175994150269</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1752.662905880334</v>
+      </c>
+      <c r="H17" t="n">
+        <v>101.1760896618472</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7525.330296724301</v>
+      </c>
+      <c r="J17" t="n">
+        <v>654.7936890768741</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1098.938090951551</v>
+      </c>
+      <c r="L17" t="n">
+        <v>66.9638389614706</v>
+      </c>
+      <c r="M17" t="n">
+        <v>885.5237760948053</v>
+      </c>
+      <c r="N17" t="n">
+        <v>172.1650619320875</v>
+      </c>
+      <c r="O17" t="n">
+        <v>366.8467971894113</v>
+      </c>
+      <c r="P17" t="n">
         <v>35099.50248163766</v>
       </c>
-      <c r="C17" t="n">
+      <c r="Q17" t="n">
         <v>1764.50955586183</v>
       </c>
-      <c r="D17" t="n">
+      <c r="R17" t="n">
         <v>5715.752204868186</v>
       </c>
-      <c r="E17" t="n">
+      <c r="S17" t="n">
         <v>2268.38867568515</v>
       </c>
-      <c r="F17" t="n">
+      <c r="T17" t="n">
         <v>214.8122642525797</v>
       </c>
-      <c r="G17" t="n">
+      <c r="U17" t="n">
         <v>768.293434816453</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
         <v>40.36204561811987</v>
       </c>
-      <c r="I17" t="n">
+      <c r="W17" t="n">
         <v>3036.682110501603</v>
       </c>
-      <c r="J17" t="n">
+      <c r="X17" t="n">
         <v>255.1743098706996</v>
       </c>
-      <c r="K17" t="n">
+      <c r="Y17" t="n">
         <v>365.1997070725795</v>
       </c>
-      <c r="L17" t="n">
+      <c r="Z17" t="n">
         <v>21.06471857456953</v>
       </c>
-      <c r="M17" t="n">
+      <c r="AA17" t="n">
         <v>252.6741923498681</v>
       </c>
-      <c r="N17" t="n">
+      <c r="AB17" t="n">
         <v>40.65864353279618</v>
       </c>
-      <c r="O17" t="n">
+      <c r="AC17" t="n">
         <v>37764.86012763311</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AD17" t="n">
         <v>1957.209041841693</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AE17" t="n">
         <v>7538.553500569907</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AF17" t="n">
         <v>3018.159539504659</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AG17" t="n">
         <v>280.0283896604058</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AH17" t="n">
         <v>841.6968702695507</v>
       </c>
-      <c r="U17" t="n">
-        <v>43.72445028349193</v>
-      </c>
-      <c r="V17" t="n">
+      <c r="AI17" t="n">
+        <v>43.72445028349194</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>3859.85640977421</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AK17" t="n">
         <v>323.7528399438978</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AL17" t="n">
         <v>434.9665111118995</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AM17" t="n">
         <v>22.13559384510269</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AN17" t="n">
         <v>313.7413147479647</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AO17" t="n">
         <v>57.76405803896588</v>
       </c>
     </row>
@@ -1937,81 +2679,123 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>102611.9521713847</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1459.662498259266</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14307.54108783524</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5503.104364381018</v>
+      </c>
+      <c r="F18" t="n">
+        <v>531.9714798371101</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1799.101249376026</v>
+      </c>
+      <c r="H18" t="n">
+        <v>99.21743076845867</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7302.205613757043</v>
+      </c>
+      <c r="J18" t="n">
+        <v>631.1889106055688</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1080.193871450854</v>
+      </c>
+      <c r="L18" t="n">
+        <v>63.39187847137268</v>
+      </c>
+      <c r="M18" t="n">
+        <v>872.70522671026</v>
+      </c>
+      <c r="N18" t="n">
+        <v>155.7208296087578</v>
+      </c>
+      <c r="O18" t="n">
+        <v>364.4412558095571</v>
+      </c>
+      <c r="P18" t="n">
         <v>34778.45641311305</v>
       </c>
-      <c r="C18" t="n">
+      <c r="Q18" t="n">
         <v>1760.808043235038</v>
       </c>
-      <c r="D18" t="n">
+      <c r="R18" t="n">
         <v>5560.272349912849</v>
       </c>
-      <c r="E18" t="n">
+      <c r="S18" t="n">
         <v>2257.525698486046</v>
       </c>
-      <c r="F18" t="n">
+      <c r="T18" t="n">
         <v>217.8826227009826</v>
       </c>
-      <c r="G18" t="n">
-        <v>931.3673302696714</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="U18" t="n">
+        <v>931.3673302696711</v>
+      </c>
+      <c r="V18" t="n">
         <v>44.64863897181421</v>
       </c>
-      <c r="I18" t="n">
+      <c r="W18" t="n">
         <v>3188.893028755718</v>
       </c>
-      <c r="J18" t="n">
+      <c r="X18" t="n">
         <v>262.5312616727967</v>
       </c>
-      <c r="K18" t="n">
+      <c r="Y18" t="n">
         <v>368.2674480811921</v>
       </c>
-      <c r="L18" t="n">
+      <c r="Z18" t="n">
         <v>21.14689341627628</v>
       </c>
-      <c r="M18" t="n">
+      <c r="AA18" t="n">
         <v>252.2215210512003</v>
       </c>
-      <c r="N18" t="n">
+      <c r="AB18" t="n">
         <v>37.41097962965436</v>
       </c>
-      <c r="O18" t="n">
+      <c r="AC18" t="n">
         <v>38789.10330698678</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AD18" t="n">
         <v>1891.871187086243</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AE18" t="n">
         <v>7356.396746422148</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AF18" t="n">
         <v>2858.680317733028</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AG18" t="n">
         <v>261.8492723732495</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AH18" t="n">
         <v>747.232681152783</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AI18" t="n">
         <v>38.68482754943238</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AJ18" t="n">
         <v>3605.912998885812</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AK18" t="n">
         <v>300.5340999226819</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AL18" t="n">
         <v>440.4386724997949</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AM18" t="n">
         <v>19.71950575823007</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AN18" t="n">
         <v>321.8896465371676</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AO18" t="n">
         <v>53.23076595544166</v>
       </c>
     </row>
@@ -2022,81 +2806,123 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>101898.4106238601</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1507.134438192586</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13857.65220627125</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5164.721160182676</v>
+      </c>
+      <c r="F19" t="n">
+        <v>511.689345229695</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1606.508764919134</v>
+      </c>
+      <c r="H19" t="n">
+        <v>95.29668388961238</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6771.22992510181</v>
+      </c>
+      <c r="J19" t="n">
+        <v>606.9860291193074</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1095.50731031745</v>
+      </c>
+      <c r="L19" t="n">
+        <v>64.38985941303712</v>
+      </c>
+      <c r="M19" t="n">
+        <v>884.5571485706496</v>
+      </c>
+      <c r="N19" t="n">
+        <v>162.9013111419744</v>
+      </c>
+      <c r="O19" t="n">
+        <v>365.6278378716945</v>
+      </c>
+      <c r="P19" t="n">
         <v>33127.53413719211</v>
       </c>
-      <c r="C19" t="n">
+      <c r="Q19" t="n">
         <v>1868.316378184173</v>
       </c>
-      <c r="D19" t="n">
+      <c r="R19" t="n">
         <v>5493.002211918173</v>
       </c>
-      <c r="E19" t="n">
+      <c r="S19" t="n">
         <v>2189.973271838895</v>
       </c>
-      <c r="F19" t="n">
+      <c r="T19" t="n">
         <v>211.4833142560311</v>
       </c>
-      <c r="G19" t="n">
+      <c r="U19" t="n">
         <v>782.8380331719733</v>
       </c>
-      <c r="H19" t="n">
+      <c r="V19" t="n">
         <v>39.79683536434907</v>
       </c>
-      <c r="I19" t="n">
+      <c r="W19" t="n">
         <v>2972.811305010868</v>
       </c>
-      <c r="J19" t="n">
+      <c r="X19" t="n">
         <v>251.2801496203802</v>
       </c>
-      <c r="K19" t="n">
+      <c r="Y19" t="n">
         <v>358.2153884310025</v>
       </c>
-      <c r="L19" t="n">
+      <c r="Z19" t="n">
         <v>20.30675555594733</v>
       </c>
-      <c r="M19" t="n">
+      <c r="AA19" t="n">
         <v>245.7606014310734</v>
       </c>
-      <c r="N19" t="n">
+      <c r="AB19" t="n">
         <v>39.56686566997341</v>
       </c>
-      <c r="O19" t="n">
+      <c r="AC19" t="n">
         <v>38641.05603598504</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AD19" t="n">
         <v>1884.246512885433</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="AE19" t="n">
         <v>6885.945506734094</v>
       </c>
-      <c r="R19" t="n">
+      <c r="AF19" t="n">
         <v>2574.243006244213</v>
       </c>
-      <c r="S19" t="n">
+      <c r="AG19" t="n">
         <v>248.5407619768943</v>
       </c>
-      <c r="T19" t="n">
+      <c r="AH19" t="n">
         <v>716.284388720252</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AI19" t="n">
         <v>39.15427244324875</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AJ19" t="n">
         <v>3290.527394964465</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AK19" t="n">
         <v>287.6950344201431</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AL19" t="n">
         <v>441.476470358365</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AM19" t="n">
         <v>21.66854298761625</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AN19" t="n">
         <v>320.3944488172605</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AO19" t="n">
         <v>56.50795253945002</v>
       </c>
     </row>
@@ -2107,81 +2933,123 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>101221.9687691519</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1474.703808186087</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14021.49724427381</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5091.158067432149</v>
+      </c>
+      <c r="F20" t="n">
+        <v>488.2035981853426</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1514.006431569459</v>
+      </c>
+      <c r="H20" t="n">
+        <v>86.73819936385813</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6605.164499001608</v>
+      </c>
+      <c r="J20" t="n">
+        <v>574.9417975492008</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1120.147207928989</v>
+      </c>
+      <c r="L20" t="n">
+        <v>61.98800049566709</v>
+      </c>
+      <c r="M20" t="n">
+        <v>911.1931718454153</v>
+      </c>
+      <c r="N20" t="n">
+        <v>165.2600230537463</v>
+      </c>
+      <c r="O20" t="n">
+        <v>361.4831796733648</v>
+      </c>
+      <c r="P20" t="n">
         <v>37980.32181963301</v>
       </c>
-      <c r="C20" t="n">
+      <c r="Q20" t="n">
         <v>1752.915612719578</v>
       </c>
-      <c r="D20" t="n">
+      <c r="R20" t="n">
         <v>6100.737107956122</v>
       </c>
-      <c r="E20" t="n">
+      <c r="S20" t="n">
         <v>2183.387414436553</v>
       </c>
-      <c r="F20" t="n">
+      <c r="T20" t="n">
         <v>205.4113239353971</v>
       </c>
-      <c r="G20" t="n">
+      <c r="U20" t="n">
         <v>703.904782913678</v>
       </c>
-      <c r="H20" t="n">
+      <c r="V20" t="n">
         <v>36.92086428253129</v>
       </c>
-      <c r="I20" t="n">
+      <c r="W20" t="n">
         <v>2887.292197350231</v>
       </c>
-      <c r="J20" t="n">
+      <c r="X20" t="n">
         <v>242.3321882179284</v>
       </c>
-      <c r="K20" t="n">
+      <c r="Y20" t="n">
         <v>422.6538185443006</v>
       </c>
-      <c r="L20" t="n">
+      <c r="Z20" t="n">
         <v>20.89204291539721</v>
       </c>
-      <c r="M20" t="n">
+      <c r="AA20" t="n">
         <v>300.2540945187556</v>
       </c>
-      <c r="N20" t="n">
+      <c r="AB20" t="n">
         <v>42.54323122652271</v>
       </c>
-      <c r="O20" t="n">
+      <c r="AC20" t="n">
         <v>35968.79915831723</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AD20" t="n">
         <v>1845.418630413185</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="AE20" t="n">
         <v>6454.237186112067</v>
       </c>
-      <c r="R20" t="n">
+      <c r="AF20" t="n">
         <v>2503.050084923632</v>
       </c>
-      <c r="S20" t="n">
+      <c r="AG20" t="n">
         <v>229.0429072352589</v>
       </c>
-      <c r="T20" t="n">
+      <c r="AH20" t="n">
         <v>676.3270828890924</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AI20" t="n">
         <v>33.33105449905658</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AJ20" t="n">
         <v>3179.377167812725</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AK20" t="n">
         <v>262.3739617343155</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AL20" t="n">
         <v>412.7458707591005</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AM20" t="n">
         <v>19.74199154754539</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AN20" t="n">
         <v>302.5014731857756</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AO20" t="n">
         <v>52.57975417901963</v>
       </c>
     </row>
@@ -2192,81 +3060,123 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>103545.4825260871</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1515.230856697714</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15098.99548775651</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5428.751203677457</v>
+      </c>
+      <c r="F21" t="n">
+        <v>511.8090268665483</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1558.681872174144</v>
+      </c>
+      <c r="H21" t="n">
+        <v>89.47476758110091</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6987.433075851601</v>
+      </c>
+      <c r="J21" t="n">
+        <v>601.2837944476493</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1084.803601620662</v>
+      </c>
+      <c r="L21" t="n">
+        <v>59.1488324799819</v>
+      </c>
+      <c r="M21" t="n">
+        <v>886.1553591294726</v>
+      </c>
+      <c r="N21" t="n">
+        <v>160.0713650400052</v>
+      </c>
+      <c r="O21" t="n">
+        <v>368.046614366434</v>
+      </c>
+      <c r="P21" t="n">
         <v>33881.53244342588</v>
       </c>
-      <c r="C21" t="n">
+      <c r="Q21" t="n">
         <v>1809.184168714792</v>
       </c>
-      <c r="D21" t="n">
+      <c r="R21" t="n">
         <v>5590.28921284122</v>
       </c>
-      <c r="E21" t="n">
+      <c r="S21" t="n">
         <v>2029.782096296103</v>
       </c>
-      <c r="F21" t="n">
+      <c r="T21" t="n">
         <v>193.488725098034</v>
       </c>
-      <c r="G21" t="n">
+      <c r="U21" t="n">
         <v>682.1260003478116</v>
       </c>
-      <c r="H21" t="n">
+      <c r="V21" t="n">
         <v>33.56161064782529</v>
       </c>
-      <c r="I21" t="n">
+      <c r="W21" t="n">
         <v>2711.908096643914</v>
       </c>
-      <c r="J21" t="n">
+      <c r="X21" t="n">
         <v>227.0503357458593</v>
       </c>
-      <c r="K21" t="n">
+      <c r="Y21" t="n">
         <v>351.4500036590838</v>
       </c>
-      <c r="L21" t="n">
+      <c r="Z21" t="n">
         <v>18.8592537785917</v>
       </c>
-      <c r="M21" t="n">
+      <c r="AA21" t="n">
         <v>244.7374802781093</v>
       </c>
-      <c r="N21" t="n">
+      <c r="AB21" t="n">
         <v>36.41956586878447</v>
       </c>
-      <c r="O21" t="n">
+      <c r="AC21" t="n">
         <v>39766.82587048542</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AD21" t="n">
         <v>1991.698497834463</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="AE21" t="n">
         <v>7901.486218791681</v>
       </c>
-      <c r="R21" t="n">
+      <c r="AF21" t="n">
         <v>2973.641315078616</v>
       </c>
-      <c r="S21" t="n">
+      <c r="AG21" t="n">
         <v>266.6323454957238</v>
       </c>
-      <c r="T21" t="n">
+      <c r="AH21" t="n">
         <v>768.9954256111707</v>
       </c>
-      <c r="U21" t="n">
+      <c r="AI21" t="n">
         <v>39.36044760643578</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AJ21" t="n">
         <v>3742.636740689787</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AK21" t="n">
         <v>305.9927931021595</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AL21" t="n">
         <v>438.6722781318823</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AM21" t="n">
         <v>19.58509194245211</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AN21" t="n">
         <v>324.2560509642183</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AO21" t="n">
         <v>53.45113126183679</v>
       </c>
     </row>

--- a/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Skill Corner/metrique_physical.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Skill Corner/metrique_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,202 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
     </row>
@@ -686,85 +681,82 @@
         <v>162.7140654390637</v>
       </c>
       <c r="O2" t="n">
-        <v>365.0602550794064</v>
+        <v>51040.75107075704</v>
       </c>
       <c r="P2" t="n">
-        <v>39837.39236764453</v>
+        <v>1701.358366132278</v>
       </c>
       <c r="Q2" t="n">
-        <v>1701.358366132278</v>
+        <v>7996.170648617808</v>
       </c>
       <c r="R2" t="n">
-        <v>5968.08886022567</v>
+        <v>3344.823320195723</v>
       </c>
       <c r="S2" t="n">
-        <v>2354.593878143404</v>
+        <v>309.9002781354333</v>
       </c>
       <c r="T2" t="n">
-        <v>224.0123483529483</v>
+        <v>1223.251881984463</v>
       </c>
       <c r="U2" t="n">
-        <v>817.7452941929355</v>
+        <v>57.6308061401736</v>
       </c>
       <c r="V2" t="n">
-        <v>40.89225412311997</v>
+        <v>4568.074105958128</v>
       </c>
       <c r="W2" t="n">
-        <v>3172.339172336339</v>
+        <v>367.5301736608893</v>
       </c>
       <c r="X2" t="n">
-        <v>264.9046024760683</v>
+        <v>533.9522871935133</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.5759406776115</v>
+        <v>33.51484240447983</v>
       </c>
       <c r="Z2" t="n">
-        <v>23.61985998079917</v>
+        <v>374.6184778574471</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.6681422365438</v>
+        <v>61.55038847331596</v>
       </c>
       <c r="AB2" t="n">
-        <v>44.48810944843942</v>
+        <v>54970.80112287052</v>
       </c>
       <c r="AC2" t="n">
-        <v>33327.89485070579</v>
+        <v>1832.361888924069</v>
       </c>
       <c r="AD2" t="n">
-        <v>1832.361888924069</v>
+        <v>10566.439638504</v>
       </c>
       <c r="AE2" t="n">
-        <v>6179.706095249033</v>
+        <v>4335.918886566415</v>
       </c>
       <c r="AF2" t="n">
-        <v>2494.80923766014</v>
+        <v>401.7863322940803</v>
       </c>
       <c r="AG2" t="n">
-        <v>234.330268546022</v>
+        <v>1262.413612299959</v>
       </c>
       <c r="AH2" t="n">
-        <v>703.0128052895238</v>
+        <v>61.57000760214235</v>
       </c>
       <c r="AI2" t="n">
-        <v>35.5321076156395</v>
+        <v>5598.331203862036</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3197.822042949665</v>
+        <v>463.3547733064645</v>
       </c>
       <c r="AK2" t="n">
-        <v>269.8623761616615</v>
+        <v>625.793118127219</v>
       </c>
       <c r="AL2" t="n">
-        <v>381.7842054920397</v>
+        <v>32.98155384398959</v>
       </c>
       <c r="AM2" t="n">
-        <v>18.60648065971633</v>
+        <v>440.8387522978978</v>
       </c>
       <c r="AN2" t="n">
-        <v>271.4648968931275</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>48.65545685018485</v>
+        <v>86.23814651246147</v>
       </c>
     </row>
     <row r="3">
@@ -813,85 +805,82 @@
         <v>152.7781755380201</v>
       </c>
       <c r="O3" t="n">
-        <v>364.6751047207613</v>
+        <v>53318.14194659347</v>
       </c>
       <c r="P3" t="n">
-        <v>36310.40138116817</v>
+        <v>1777.271010088398</v>
       </c>
       <c r="Q3" t="n">
-        <v>1777.271010088398</v>
+        <v>8988.841135051787</v>
       </c>
       <c r="R3" t="n">
-        <v>5761.193470867132</v>
+        <v>3912.675393748137</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.19686367999</v>
+        <v>365.0665105692718</v>
       </c>
       <c r="T3" t="n">
-        <v>227.5153573726533</v>
+        <v>1492.749639202226</v>
       </c>
       <c r="U3" t="n">
-        <v>860.2428305835662</v>
+        <v>70.74958734891256</v>
       </c>
       <c r="V3" t="n">
-        <v>43.88113571679789</v>
+        <v>5405.430560269521</v>
       </c>
       <c r="W3" t="n">
-        <v>3285.439694263556</v>
+        <v>435.8186601475861</v>
       </c>
       <c r="X3" t="n">
-        <v>271.3964930894513</v>
+        <v>554.9602327527243</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.0554937591571</v>
+        <v>31.26656925829039</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.30545269663669</v>
+        <v>381.7371470569621</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.6078427244524</v>
+        <v>57.86770827128876</v>
       </c>
       <c r="AB3" t="n">
-        <v>37.1747160857598</v>
+        <v>58710.16669907365</v>
       </c>
       <c r="AC3" t="n">
-        <v>36037.06640615848</v>
+        <v>1957.004221139997</v>
       </c>
       <c r="AD3" t="n">
-        <v>1957.004221139997</v>
+        <v>12019.20648256656</v>
       </c>
       <c r="AE3" t="n">
-        <v>6974.109047266845</v>
+        <v>4824.081846728087</v>
       </c>
       <c r="AF3" t="n">
-        <v>2804.582707355944</v>
+        <v>427.9004916260053</v>
       </c>
       <c r="AG3" t="n">
-        <v>254.0644509817654</v>
+        <v>1238.257011979596</v>
       </c>
       <c r="AH3" t="n">
-        <v>717.5832557125184</v>
+        <v>63.49291973131767</v>
       </c>
       <c r="AI3" t="n">
-        <v>38.14485448027065</v>
+        <v>6062.336719792219</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3522.165963068462</v>
+        <v>491.401325848824</v>
       </c>
       <c r="AK3" t="n">
-        <v>292.209305462036</v>
+        <v>659.8581221820019</v>
       </c>
       <c r="AL3" t="n">
-        <v>409.8565343324854</v>
+        <v>33.27905470567755</v>
       </c>
       <c r="AM3" t="n">
-        <v>19.78747529505673</v>
+        <v>474.9429631694648</v>
       </c>
       <c r="AN3" t="n">
-        <v>299.4876304832763</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>52.19563709592533</v>
+        <v>89.74084339636363</v>
       </c>
     </row>
     <row r="4">
@@ -940,85 +929,82 @@
         <v>163.9387565915235</v>
       </c>
       <c r="O4" t="n">
-        <v>377.1946410243807</v>
+        <v>56428.73027782635</v>
       </c>
       <c r="P4" t="n">
-        <v>35484.24227125501</v>
+        <v>1880.958511657501</v>
       </c>
       <c r="Q4" t="n">
-        <v>1880.958511657501</v>
+        <v>9854.402144370275</v>
       </c>
       <c r="R4" t="n">
-        <v>5888.374700768083</v>
+        <v>4176.615837254828</v>
       </c>
       <c r="S4" t="n">
-        <v>2332.684259156637</v>
+        <v>383.8465598068603</v>
       </c>
       <c r="T4" t="n">
-        <v>217.6504166995609</v>
+        <v>1401.521744239233</v>
       </c>
       <c r="U4" t="n">
-        <v>755.5082520621531</v>
+        <v>70.70628876878774</v>
       </c>
       <c r="V4" t="n">
-        <v>40.58656233187056</v>
+        <v>5578.13829669164</v>
       </c>
       <c r="W4" t="n">
-        <v>3088.19251121879</v>
+        <v>454.5554304679972</v>
       </c>
       <c r="X4" t="n">
-        <v>258.2369790314315</v>
+        <v>584.1404742416814</v>
       </c>
       <c r="Y4" t="n">
-        <v>361.8473872110301</v>
+        <v>30.19737310251868</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.38132349255233</v>
+        <v>390.1902105462182</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.7023298458352</v>
+        <v>65.50285900850523</v>
       </c>
       <c r="AB4" t="n">
-        <v>38.25648438828252</v>
+        <v>59760.87898297975</v>
       </c>
       <c r="AC4" t="n">
-        <v>36780.1979503933</v>
+        <v>1992.028140667731</v>
       </c>
       <c r="AD4" t="n">
-        <v>1992.028140667731</v>
+        <v>12034.93078453898</v>
       </c>
       <c r="AE4" t="n">
-        <v>7154.822358240179</v>
+        <v>4942.785931530586</v>
       </c>
       <c r="AF4" t="n">
-        <v>2948.828619248014</v>
+        <v>444.9546426273785</v>
       </c>
       <c r="AG4" t="n">
-        <v>267.292861809021</v>
+        <v>1336.771949033293</v>
       </c>
       <c r="AH4" t="n">
-        <v>788.048588688236</v>
+        <v>65.14454188981593</v>
       </c>
       <c r="AI4" t="n">
-        <v>40.26209312466816</v>
+        <v>6279.561518215644</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3736.87720793625</v>
+        <v>510.1022582659949</v>
       </c>
       <c r="AK4" t="n">
-        <v>307.5549549336891</v>
+        <v>677.9805800594144</v>
       </c>
       <c r="AL4" t="n">
-        <v>421.8435857518091</v>
+        <v>32.40448941337856</v>
       </c>
       <c r="AM4" t="n">
-        <v>19.83861588460884</v>
+        <v>467.2398780174576</v>
       </c>
       <c r="AN4" t="n">
-        <v>297.9271477576575</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>53.43314163374065</v>
+        <v>88.40768952325</v>
       </c>
     </row>
     <row r="5">
@@ -1067,85 +1053,82 @@
         <v>160.2042581657878</v>
       </c>
       <c r="O5" t="n">
-        <v>380.0855810669514</v>
+        <v>55639.54609179537</v>
       </c>
       <c r="P5" t="n">
-        <v>34100.70438126235</v>
+        <v>1854.647081284657</v>
       </c>
       <c r="Q5" t="n">
-        <v>1854.647081284657</v>
+        <v>9433.256065215468</v>
       </c>
       <c r="R5" t="n">
-        <v>5517.809593061183</v>
+        <v>4281.614492200304</v>
       </c>
       <c r="S5" t="n">
-        <v>2375.078880003141</v>
+        <v>389.370940234859</v>
       </c>
       <c r="T5" t="n">
-        <v>221.8978829033249</v>
+        <v>1739.641310273617</v>
       </c>
       <c r="U5" t="n">
-        <v>929.5485377695213</v>
+        <v>80.34384770536381</v>
       </c>
       <c r="V5" t="n">
-        <v>46.53828124222364</v>
+        <v>6021.256637759124</v>
       </c>
       <c r="W5" t="n">
-        <v>3304.627417772662</v>
+        <v>469.7113196074242</v>
       </c>
       <c r="X5" t="n">
-        <v>268.4361641455485</v>
+        <v>562.6057768974197</v>
       </c>
       <c r="Y5" t="n">
-        <v>339.8972796272301</v>
+        <v>37.09857026844526</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.51944074928572</v>
+        <v>382.6196556529369</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.1285310880648</v>
+        <v>66.86841204423617</v>
       </c>
       <c r="AB5" t="n">
-        <v>37.64068946273488</v>
+        <v>59727.62184715379</v>
       </c>
       <c r="AC5" t="n">
-        <v>39473.22625264357</v>
+        <v>1990.921889583389</v>
       </c>
       <c r="AD5" t="n">
-        <v>1990.921889583389</v>
+        <v>11534.86131784991</v>
       </c>
       <c r="AE5" t="n">
-        <v>7369.528343201314</v>
+        <v>4800.763294958501</v>
       </c>
       <c r="AF5" t="n">
-        <v>2943.680000146353</v>
+        <v>425.1798442598796</v>
       </c>
       <c r="AG5" t="n">
-        <v>264.3955074286948</v>
+        <v>1365.082136355189</v>
       </c>
       <c r="AH5" t="n">
-        <v>784.9648119116098</v>
+        <v>66.52153563831084</v>
       </c>
       <c r="AI5" t="n">
-        <v>40.84805098810694</v>
+        <v>6165.848385900717</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3728.644812057963</v>
+        <v>491.701628322767</v>
       </c>
       <c r="AK5" t="n">
-        <v>305.2435584168017</v>
+        <v>663.5566832570989</v>
       </c>
       <c r="AL5" t="n">
-        <v>439.7381859854298</v>
+        <v>35.11432903177288</v>
       </c>
       <c r="AM5" t="n">
-        <v>21.65936976095136</v>
+        <v>471.1568414954651</v>
       </c>
       <c r="AN5" t="n">
-        <v>321.8437436846468</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>51.88609274518135</v>
+        <v>84.4255962706499</v>
       </c>
     </row>
     <row r="6">
@@ -1194,85 +1177,82 @@
         <v>163.2406807953443</v>
       </c>
       <c r="O6" t="n">
-        <v>362.2831667259499</v>
+        <v>51954.71154792968</v>
       </c>
       <c r="P6" t="n">
-        <v>39646.06023635307</v>
+        <v>1731.825397339773</v>
       </c>
       <c r="Q6" t="n">
-        <v>1731.825397339773</v>
+        <v>8586.002511517019</v>
       </c>
       <c r="R6" t="n">
-        <v>6276.889448452066</v>
+        <v>3446.050994525473</v>
       </c>
       <c r="S6" t="n">
-        <v>2356.117867837679</v>
+        <v>321.3077390226952</v>
       </c>
       <c r="T6" t="n">
-        <v>224.527339752445</v>
+        <v>1235.59539440796</v>
       </c>
       <c r="U6" t="n">
-        <v>802.2255451798718</v>
+        <v>58.90692266004637</v>
       </c>
       <c r="V6" t="n">
-        <v>41.05782799929204</v>
+        <v>4681.648261899219</v>
       </c>
       <c r="W6" t="n">
-        <v>3158.343413017551</v>
+        <v>380.2181733345169</v>
       </c>
       <c r="X6" t="n">
-        <v>265.5851677517371</v>
+        <v>552.2611318794734</v>
       </c>
       <c r="Y6" t="n">
-        <v>410.8347150743052</v>
+        <v>33.90010471521356</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.39679282424523</v>
+        <v>373.9176289466569</v>
       </c>
       <c r="AA6" t="n">
-        <v>285.7077059216617</v>
+        <v>61.06823229715037</v>
       </c>
       <c r="AB6" t="n">
-        <v>43.32505778466864</v>
+        <v>56710.74685138328</v>
       </c>
       <c r="AC6" t="n">
-        <v>34908.53092080668</v>
+        <v>1890.359838801284</v>
       </c>
       <c r="AD6" t="n">
-        <v>1890.359838801284</v>
+        <v>11451.37656275304</v>
       </c>
       <c r="AE6" t="n">
-        <v>6865.807991564596</v>
+        <v>4701.10361734201</v>
       </c>
       <c r="AF6" t="n">
-        <v>2800.136696536117</v>
+        <v>421.6383183380166</v>
       </c>
       <c r="AG6" t="n">
-        <v>253.3993736366879</v>
+        <v>1234.218500315015</v>
       </c>
       <c r="AH6" t="n">
-        <v>744.168844886735</v>
+        <v>60.70895217203758</v>
       </c>
       <c r="AI6" t="n">
-        <v>37.75336290024672</v>
+        <v>5935.320299631861</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3544.305541422851</v>
+        <v>482.3446989344013</v>
       </c>
       <c r="AK6" t="n">
-        <v>291.1527365369346</v>
+        <v>663.2951363041022</v>
       </c>
       <c r="AL6" t="n">
-        <v>412.8837792783438</v>
+        <v>34.53034392029412</v>
       </c>
       <c r="AM6" t="n">
-        <v>20.97936978465374</v>
+        <v>463.7202403571073</v>
       </c>
       <c r="AN6" t="n">
-        <v>289.7871433973178</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>52.64790358492603</v>
+        <v>88.73626175422292</v>
       </c>
     </row>
     <row r="7">
@@ -1321,85 +1301,82 @@
         <v>167.4664996588078</v>
       </c>
       <c r="O7" t="n">
-        <v>365.6265090135709</v>
+        <v>54239.5051783829</v>
       </c>
       <c r="P7" t="n">
-        <v>36358.13893829595</v>
+        <v>1807.981784210755</v>
       </c>
       <c r="Q7" t="n">
-        <v>1807.981784210755</v>
+        <v>9403.680656230446</v>
       </c>
       <c r="R7" t="n">
-        <v>5985.077404213611</v>
+        <v>3838.002262134947</v>
       </c>
       <c r="S7" t="n">
-        <v>2417.558780912058</v>
+        <v>358.3891186981882</v>
       </c>
       <c r="T7" t="n">
-        <v>229.4628533327644</v>
+        <v>1395.964268156592</v>
       </c>
       <c r="U7" t="n">
-        <v>898.7915950505409</v>
+        <v>67.96899295434709</v>
       </c>
       <c r="V7" t="n">
-        <v>45.58608596697216</v>
+        <v>5233.966296062214</v>
       </c>
       <c r="W7" t="n">
-        <v>3316.350375962599</v>
+        <v>426.3553888333021</v>
       </c>
       <c r="X7" t="n">
-        <v>275.0489392997365</v>
+        <v>558.5228961630173</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.720213575021</v>
+        <v>32.03660201332838</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.38008453512395</v>
+        <v>380.556516966489</v>
       </c>
       <c r="AA7" t="n">
-        <v>259.2251530772582</v>
+        <v>61.39574548290378</v>
       </c>
       <c r="AB7" t="n">
-        <v>40.94637354770509</v>
+        <v>56740.13980094473</v>
       </c>
       <c r="AC7" t="n">
-        <v>36407.47780160918</v>
+        <v>1891.337325943461</v>
       </c>
       <c r="AD7" t="n">
-        <v>1891.337325943461</v>
+        <v>11211.49871446461</v>
       </c>
       <c r="AE7" t="n">
-        <v>6907.031579991382</v>
+        <v>4647.264430037148</v>
       </c>
       <c r="AF7" t="n">
-        <v>2813.374786565848</v>
+        <v>426.8079265477602</v>
       </c>
       <c r="AG7" t="n">
-        <v>258.87205556764</v>
+        <v>1224.771006469297</v>
       </c>
       <c r="AH7" t="n">
-        <v>722.5428153709096</v>
+        <v>61.85650798919586</v>
       </c>
       <c r="AI7" t="n">
-        <v>38.12444734941744</v>
+        <v>5872.03441659011</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3535.917601936758</v>
+        <v>488.6628591361289</v>
       </c>
       <c r="AK7" t="n">
-        <v>296.9965029170575</v>
+        <v>663.5826294900503</v>
       </c>
       <c r="AL7" t="n">
-        <v>427.6473408368817</v>
+        <v>33.09522380248385</v>
       </c>
       <c r="AM7" t="n">
-        <v>21.02143246890435</v>
+        <v>473.3445451112991</v>
       </c>
       <c r="AN7" t="n">
-        <v>312.9148814111921</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>54.83442849173797</v>
+        <v>88.1930684537662</v>
       </c>
     </row>
     <row r="8">
@@ -1448,85 +1425,82 @@
         <v>161.9943782121135</v>
       </c>
       <c r="O8" t="n">
-        <v>371.7036278564892</v>
+        <v>55778.78636733619</v>
       </c>
       <c r="P8" t="n">
-        <v>31605.90624336577</v>
+        <v>1859.291837922404</v>
       </c>
       <c r="Q8" t="n">
-        <v>1859.291837922404</v>
+        <v>10015.23370377983</v>
       </c>
       <c r="R8" t="n">
-        <v>5415.949868626639</v>
+        <v>4156.479369904754</v>
       </c>
       <c r="S8" t="n">
-        <v>2146.796109794234</v>
+        <v>369.7997648644895</v>
       </c>
       <c r="T8" t="n">
-        <v>193.4979378083607</v>
+        <v>1412.65848201645</v>
       </c>
       <c r="U8" t="n">
-        <v>684.9675515252789</v>
+        <v>66.83577098266919</v>
       </c>
       <c r="V8" t="n">
-        <v>35.29940602544115</v>
+        <v>5569.135544224104</v>
       </c>
       <c r="W8" t="n">
-        <v>2831.763661319513</v>
+        <v>436.6338582719399</v>
       </c>
       <c r="X8" t="n">
-        <v>228.7973438338019</v>
+        <v>614.8100679741949</v>
       </c>
       <c r="Y8" t="n">
-        <v>343.7167678641451</v>
+        <v>34.08937879586723</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.66452003042308</v>
+        <v>406.5668234719096</v>
       </c>
       <c r="AA8" t="n">
-        <v>234.4087163194565</v>
+        <v>69.31989717754176</v>
       </c>
       <c r="AB8" t="n">
-        <v>36.99159555174045</v>
+        <v>58359.52424426334</v>
       </c>
       <c r="AC8" t="n">
-        <v>41290.23154689803</v>
+        <v>1945.316598437462</v>
       </c>
       <c r="AD8" t="n">
-        <v>1945.316598437462</v>
+        <v>11400.65029244292</v>
       </c>
       <c r="AE8" t="n">
-        <v>7509.613927921359</v>
+        <v>4331.978593401979</v>
       </c>
       <c r="AF8" t="n">
-        <v>2771.697775182703</v>
+        <v>386.2957101211799</v>
       </c>
       <c r="AG8" t="n">
-        <v>252.0583147842281</v>
+        <v>1107.988506374637</v>
       </c>
       <c r="AH8" t="n">
-        <v>714.1630892056957</v>
+        <v>54.78995852370526</v>
       </c>
       <c r="AI8" t="n">
-        <v>36.09646591068713</v>
+        <v>5439.97040771239</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3485.860864388399</v>
+        <v>441.0861898597918</v>
       </c>
       <c r="AK8" t="n">
-        <v>288.1547806949152</v>
+        <v>684.5211115258444</v>
       </c>
       <c r="AL8" t="n">
-        <v>487.4037879394531</v>
+        <v>33.90425303817256</v>
       </c>
       <c r="AM8" t="n">
-        <v>20.97422749071369</v>
+        <v>497.3546076815518</v>
       </c>
       <c r="AN8" t="n">
-        <v>360.0535240768066</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>57.59071331936005</v>
+        <v>85.87921699187818</v>
       </c>
     </row>
     <row r="9">
@@ -1575,85 +1549,82 @@
         <v>171.5742698134288</v>
       </c>
       <c r="O9" t="n">
-        <v>356.0795676694103</v>
+        <v>52227.55197873378</v>
       </c>
       <c r="P9" t="n">
-        <v>31464.44519527635</v>
+        <v>1740.918651617048</v>
       </c>
       <c r="Q9" t="n">
-        <v>1740.918651617048</v>
+        <v>9204.053140145967</v>
       </c>
       <c r="R9" t="n">
-        <v>5369.903901716403</v>
+        <v>3904.305699512207</v>
       </c>
       <c r="S9" t="n">
-        <v>2233.279084587648</v>
+        <v>360.8780977380857</v>
       </c>
       <c r="T9" t="n">
-        <v>210.8894994094385</v>
+        <v>1536.635361567245</v>
       </c>
       <c r="U9" t="n">
-        <v>869.9235218486979</v>
+        <v>73.00730911927151</v>
       </c>
       <c r="V9" t="n">
-        <v>42.87938996116742</v>
+        <v>5440.942116008579</v>
       </c>
       <c r="W9" t="n">
-        <v>3103.202606436345</v>
+        <v>433.8826589368601</v>
       </c>
       <c r="X9" t="n">
-        <v>253.768889370606</v>
+        <v>571.1551538036155</v>
       </c>
       <c r="Y9" t="n">
-        <v>340.205976471261</v>
+        <v>36.10760653448938</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.66930719191754</v>
+        <v>379.4331724280437</v>
       </c>
       <c r="AA9" t="n">
-        <v>232.7973257127183</v>
+        <v>65.8152407373172</v>
       </c>
       <c r="AB9" t="n">
-        <v>39.1377190073405</v>
+        <v>55725.87052313641</v>
       </c>
       <c r="AC9" t="n">
-        <v>38508.24554179802</v>
+        <v>1857.53173634755</v>
       </c>
       <c r="AD9" t="n">
-        <v>1857.53173634755</v>
+        <v>11157.39728553609</v>
       </c>
       <c r="AE9" t="n">
-        <v>7363.192320251139</v>
+        <v>4295.184350159258</v>
       </c>
       <c r="AF9" t="n">
-        <v>2833.093076738307</v>
+        <v>396.3246590401026</v>
       </c>
       <c r="AG9" t="n">
-        <v>263.0473135996494</v>
+        <v>1117.270469178031</v>
       </c>
       <c r="AH9" t="n">
-        <v>718.3753891865923</v>
+        <v>57.60831698312342</v>
       </c>
       <c r="AI9" t="n">
-        <v>39.18332234294527</v>
+        <v>5412.458125474051</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3551.468465924899</v>
+        <v>453.9384303169219</v>
       </c>
       <c r="AK9" t="n">
-        <v>302.2306359425947</v>
+        <v>672.3406284387148</v>
       </c>
       <c r="AL9" t="n">
-        <v>460.4733788310079</v>
+        <v>34.16965695363817</v>
       </c>
       <c r="AM9" t="n">
-        <v>23.07159042693753</v>
+        <v>473.5524387476136</v>
       </c>
       <c r="AN9" t="n">
-        <v>331.4954885789376</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>59.10092253621826</v>
+        <v>90.14599287178578</v>
       </c>
     </row>
     <row r="10">
@@ -1702,85 +1673,82 @@
         <v>160.2262140025493</v>
       </c>
       <c r="O10" t="n">
-        <v>364.1192755902589</v>
+        <v>54345.13701069314</v>
       </c>
       <c r="P10" t="n">
-        <v>33513.946478248</v>
+        <v>1811.501018843719</v>
       </c>
       <c r="Q10" t="n">
-        <v>1811.501018843719</v>
+        <v>9681.012295981376</v>
       </c>
       <c r="R10" t="n">
-        <v>5665.29308393523</v>
+        <v>3881.669686859504</v>
       </c>
       <c r="S10" t="n">
-        <v>2202.494655653333</v>
+        <v>369.9382495172374</v>
       </c>
       <c r="T10" t="n">
-        <v>214.242092434757</v>
+        <v>1358.207541697056</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1435966056287</v>
+        <v>68.60684888861169</v>
       </c>
       <c r="V10" t="n">
-        <v>41.50003549465603</v>
+        <v>5239.872885118431</v>
       </c>
       <c r="W10" t="n">
-        <v>2979.638252258962</v>
+        <v>438.5481950422445</v>
       </c>
       <c r="X10" t="n">
-        <v>255.742127929413</v>
+        <v>607.7006621710589</v>
       </c>
       <c r="Y10" t="n">
-        <v>364.319503245029</v>
+        <v>35.67410220597591</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.39888783959255</v>
+        <v>417.8535070983637</v>
       </c>
       <c r="AA10" t="n">
-        <v>255.2853602289634</v>
+        <v>67.85598276473331</v>
       </c>
       <c r="AB10" t="n">
-        <v>38.3774201091088</v>
+        <v>58793.15219681898</v>
       </c>
       <c r="AC10" t="n">
-        <v>38921.63672797378</v>
+        <v>1959.773313278062</v>
       </c>
       <c r="AD10" t="n">
-        <v>1959.773313278062</v>
+        <v>11815.46392958308</v>
       </c>
       <c r="AE10" t="n">
-        <v>7540.440555059147</v>
+        <v>4827.197082553354</v>
       </c>
       <c r="AF10" t="n">
-        <v>2972.786720668893</v>
+        <v>432.4021607023143</v>
       </c>
       <c r="AG10" t="n">
-        <v>271.2730752658385</v>
+        <v>1290.52208503124</v>
       </c>
       <c r="AH10" t="n">
-        <v>810.4784322562251</v>
+        <v>67.16384266467131</v>
       </c>
       <c r="AI10" t="n">
-        <v>43.04686734355362</v>
+        <v>6117.71862621285</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3783.265152925118</v>
+        <v>499.563291936205</v>
       </c>
       <c r="AK10" t="n">
-        <v>314.3199426093922</v>
+        <v>673.8508629484859</v>
       </c>
       <c r="AL10" t="n">
-        <v>445.7226769689055</v>
+        <v>35.59740171240824</v>
       </c>
       <c r="AM10" t="n">
-        <v>21.07112142796846</v>
+        <v>475.8285363826311</v>
       </c>
       <c r="AN10" t="n">
-        <v>323.0740019853761</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>55.12907432270941</v>
+        <v>90.42369492436291</v>
       </c>
     </row>
     <row r="11">
@@ -1829,85 +1797,82 @@
         <v>161.3184582000445</v>
       </c>
       <c r="O11" t="n">
-        <v>374.4812531741433</v>
+        <v>55845.32632751592</v>
       </c>
       <c r="P11" t="n">
-        <v>33940.34059201585</v>
+        <v>1861.511399250628</v>
       </c>
       <c r="Q11" t="n">
-        <v>1861.511399250628</v>
+        <v>9184.506437520005</v>
       </c>
       <c r="R11" t="n">
-        <v>5298.681368812443</v>
+        <v>3858.097475028177</v>
       </c>
       <c r="S11" t="n">
-        <v>2147.141282704585</v>
+        <v>354.7248658695978</v>
       </c>
       <c r="T11" t="n">
-        <v>203.4931030151275</v>
+        <v>1429.342889380019</v>
       </c>
       <c r="U11" t="n">
-        <v>783.0409406199378</v>
+        <v>65.73551747511482</v>
       </c>
       <c r="V11" t="n">
-        <v>38.13966386616059</v>
+        <v>5287.439934058045</v>
       </c>
       <c r="W11" t="n">
-        <v>2930.182223324523</v>
+        <v>420.4583859382643</v>
       </c>
       <c r="X11" t="n">
-        <v>241.6327668812881</v>
+        <v>579.7672076318518</v>
       </c>
       <c r="Y11" t="n">
-        <v>349.0684929813748</v>
+        <v>35.6584875211901</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.09285803181702</v>
+        <v>398.9898591017047</v>
       </c>
       <c r="AA11" t="n">
-        <v>244.1856650483025</v>
+        <v>66.37438353446913</v>
       </c>
       <c r="AB11" t="n">
-        <v>38.52134661728381</v>
+        <v>58140.01733923998</v>
       </c>
       <c r="AC11" t="n">
-        <v>38455.13090360563</v>
+        <v>1938.001745162992</v>
       </c>
       <c r="AD11" t="n">
-        <v>1938.001745162992</v>
+        <v>10765.56038462457</v>
       </c>
       <c r="AE11" t="n">
-        <v>6843.838926569552</v>
+        <v>4126.28980359862</v>
       </c>
       <c r="AF11" t="n">
-        <v>2532.040034475387</v>
+        <v>385.7572716633815</v>
       </c>
       <c r="AG11" t="n">
-        <v>240.0098893038447</v>
+        <v>1147.233628540576</v>
       </c>
       <c r="AH11" t="n">
-        <v>683.5321073178033</v>
+        <v>54.20957636536063</v>
       </c>
       <c r="AI11" t="n">
-        <v>34.70033577055932</v>
+        <v>5273.521398607464</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3215.57214179319</v>
+        <v>439.9682129419967</v>
       </c>
       <c r="AK11" t="n">
-        <v>274.710225074404</v>
+        <v>654.5776982068631</v>
       </c>
       <c r="AL11" t="n">
-        <v>438.3241279791899</v>
+        <v>32.24702570917114</v>
       </c>
       <c r="AM11" t="n">
-        <v>20.76925734135388</v>
+        <v>473.0272177825908</v>
       </c>
       <c r="AN11" t="n">
-        <v>324.4991860809494</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>54.66262717886347</v>
+        <v>84.63899476971325</v>
       </c>
     </row>
     <row r="12">
@@ -1956,85 +1921,82 @@
         <v>156.6198875940554</v>
       </c>
       <c r="O12" t="n">
-        <v>367.5001709390592</v>
+        <v>55125.63308499962</v>
       </c>
       <c r="P12" t="n">
-        <v>36502.07701476299</v>
+        <v>1837.52173324309</v>
       </c>
       <c r="Q12" t="n">
-        <v>1837.52173324309</v>
+        <v>9373.789635767758</v>
       </c>
       <c r="R12" t="n">
-        <v>5928.32859764842</v>
+        <v>4193.470133750251</v>
       </c>
       <c r="S12" t="n">
-        <v>2397.422269792057</v>
+        <v>385.7308744061932</v>
       </c>
       <c r="T12" t="n">
-        <v>225.366050601241</v>
+        <v>1708.532620008876</v>
       </c>
       <c r="U12" t="n">
-        <v>877.9936601315444</v>
+        <v>78.78405259297143</v>
       </c>
       <c r="V12" t="n">
-        <v>44.22366304192922</v>
+        <v>5902.001513377651</v>
       </c>
       <c r="W12" t="n">
-        <v>3275.415929923602</v>
+        <v>464.5155571374246</v>
       </c>
       <c r="X12" t="n">
-        <v>269.5897136431702</v>
+        <v>567.9421164715484</v>
       </c>
       <c r="Y12" t="n">
-        <v>364.1309710068934</v>
+        <v>31.3221343005109</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.7411785677657</v>
+        <v>398.968069198272</v>
       </c>
       <c r="AA12" t="n">
-        <v>268.235899736037</v>
+        <v>60.19778901364889</v>
       </c>
       <c r="AB12" t="n">
-        <v>37.64479311658384</v>
+        <v>57479.10639671418</v>
       </c>
       <c r="AC12" t="n">
-        <v>39517.86857413854</v>
+        <v>1915.968759269653</v>
       </c>
       <c r="AD12" t="n">
-        <v>1915.968759269653</v>
+        <v>11534.62644842862</v>
       </c>
       <c r="AE12" t="n">
-        <v>7693.331111886352</v>
+        <v>4670.253616568546</v>
       </c>
       <c r="AF12" t="n">
-        <v>3061.375031143359</v>
+        <v>414.5567133021629</v>
       </c>
       <c r="AG12" t="n">
-        <v>274.9718657804802</v>
+        <v>1197.742738777545</v>
       </c>
       <c r="AH12" t="n">
-        <v>764.7971377149958</v>
+        <v>59.63470276724416</v>
       </c>
       <c r="AI12" t="n">
-        <v>40.33377180554461</v>
+        <v>5868.001567708695</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3826.172168858355</v>
+        <v>474.1934921178034</v>
       </c>
       <c r="AK12" t="n">
-        <v>315.3056375860248</v>
+        <v>636.5658135304419</v>
       </c>
       <c r="AL12" t="n">
-        <v>446.7155480379605</v>
+        <v>29.35688263320204</v>
       </c>
       <c r="AM12" t="n">
-        <v>20.13852471319555</v>
+        <v>474.0445219781205</v>
       </c>
       <c r="AN12" t="n">
-        <v>335.701507240814</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>55.59467916757411</v>
+        <v>83.47997245468777</v>
       </c>
     </row>
     <row r="13">
@@ -2083,85 +2045,82 @@
         <v>161.3850472428049</v>
       </c>
       <c r="O13" t="n">
-        <v>375.8482922598401</v>
+        <v>54539.61991576399</v>
       </c>
       <c r="P13" t="n">
-        <v>40156.67532031846</v>
+        <v>1817.986248171062</v>
       </c>
       <c r="Q13" t="n">
-        <v>1817.986248171062</v>
+        <v>9050.800698053808</v>
       </c>
       <c r="R13" t="n">
-        <v>6234.815609214259</v>
+        <v>3580.691753961472</v>
       </c>
       <c r="S13" t="n">
-        <v>2373.669665656903</v>
+        <v>340.1202566274894</v>
       </c>
       <c r="T13" t="n">
-        <v>230.9700265711305</v>
+        <v>1333.771433203461</v>
       </c>
       <c r="U13" t="n">
-        <v>876.2101574402163</v>
+        <v>63.57505352143082</v>
       </c>
       <c r="V13" t="n">
-        <v>44.15001573306445</v>
+        <v>4914.464334838785</v>
       </c>
       <c r="W13" t="n">
-        <v>3249.87982309712</v>
+        <v>403.6978635286432</v>
       </c>
       <c r="X13" t="n">
-        <v>275.120042304195</v>
+        <v>574.1789876877916</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.904882462659</v>
+        <v>32.57208093841273</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.13878715715929</v>
+        <v>410.6797748523566</v>
       </c>
       <c r="AA13" t="n">
-        <v>302.7273809483326</v>
+        <v>67.36240899527286</v>
       </c>
       <c r="AB13" t="n">
-        <v>46.75249675551085</v>
+        <v>61210.04689366333</v>
       </c>
       <c r="AC13" t="n">
-        <v>31823.55700741104</v>
+        <v>2040.332863187485</v>
       </c>
       <c r="AD13" t="n">
-        <v>2040.332863187485</v>
+        <v>12317.05919910982</v>
       </c>
       <c r="AE13" t="n">
-        <v>6209.944891016564</v>
+        <v>5107.396082151521</v>
       </c>
       <c r="AF13" t="n">
-        <v>2464.919657444004</v>
+        <v>453.0270052546699</v>
       </c>
       <c r="AG13" t="n">
-        <v>225.740040422021</v>
+        <v>1584.429475149798</v>
       </c>
       <c r="AH13" t="n">
-        <v>758.45564569242</v>
+        <v>78.4299107741993</v>
       </c>
       <c r="AI13" t="n">
-        <v>38.4333417579018</v>
+        <v>6691.830741913575</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3223.375303136424</v>
+        <v>531.453753250713</v>
       </c>
       <c r="AK13" t="n">
-        <v>264.1733821799228</v>
+        <v>675.2577929656304</v>
       </c>
       <c r="AL13" t="n">
-        <v>348.9424165796902</v>
+        <v>34.39682283477364</v>
       </c>
       <c r="AM13" t="n">
-        <v>16.88850805807818</v>
+        <v>464.498349586539</v>
       </c>
       <c r="AN13" t="n">
-        <v>245.9233254892496</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>43.45068313148786</v>
+        <v>88.28197193403197</v>
       </c>
     </row>
     <row r="14">
@@ -2210,85 +2169,82 @@
         <v>161.5149670675185</v>
       </c>
       <c r="O14" t="n">
-        <v>376.4175273841593</v>
+        <v>55668.82583982449</v>
       </c>
       <c r="P14" t="n">
-        <v>32425.71940578183</v>
+        <v>1855.624427918973</v>
       </c>
       <c r="Q14" t="n">
-        <v>1855.624427918973</v>
+        <v>9494.962479215645</v>
       </c>
       <c r="R14" t="n">
-        <v>5282.174417273729</v>
+        <v>4043.587998436054</v>
       </c>
       <c r="S14" t="n">
-        <v>2053.336525466998</v>
+        <v>397.4461725680499</v>
       </c>
       <c r="T14" t="n">
-        <v>201.8506902583196</v>
+        <v>1763.528138835849</v>
       </c>
       <c r="U14" t="n">
-        <v>775.8438309405923</v>
+        <v>82.50949269501945</v>
       </c>
       <c r="V14" t="n">
-        <v>39.51921550734728</v>
+        <v>5807.117680958877</v>
       </c>
       <c r="W14" t="n">
-        <v>2829.180356407589</v>
+        <v>479.9539903380522</v>
       </c>
       <c r="X14" t="n">
-        <v>241.3699057656668</v>
+        <v>586.7116235716874</v>
       </c>
       <c r="Y14" t="n">
-        <v>329.6289979633131</v>
+        <v>36.92275820559141</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.44230036257656</v>
+        <v>395.1793223824146</v>
       </c>
       <c r="AA14" t="n">
-        <v>233.9987242738838</v>
+        <v>69.13888241253528</v>
       </c>
       <c r="AB14" t="n">
-        <v>36.84466137779822</v>
+        <v>59601.25393804617</v>
       </c>
       <c r="AC14" t="n">
-        <v>38711.87613562083</v>
+        <v>1986.705935545963</v>
       </c>
       <c r="AD14" t="n">
-        <v>1986.705935545963</v>
+        <v>11852.60825407843</v>
       </c>
       <c r="AE14" t="n">
-        <v>7476.469610939856</v>
+        <v>4865.601947095031</v>
       </c>
       <c r="AF14" t="n">
-        <v>2978.01579503979</v>
+        <v>457.4529209246099</v>
       </c>
       <c r="AG14" t="n">
-        <v>283.3000444634479</v>
+        <v>1478.058256465128</v>
       </c>
       <c r="AH14" t="n">
-        <v>885.2295667020461</v>
+        <v>77.1862714852161</v>
       </c>
       <c r="AI14" t="n">
-        <v>47.47628350845901</v>
+        <v>6343.657833144184</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3863.245361741836</v>
+        <v>534.6413907330877</v>
       </c>
       <c r="AK14" t="n">
-        <v>330.776327971907</v>
+        <v>666.8052799683193</v>
       </c>
       <c r="AL14" t="n">
-        <v>435.0139767833091</v>
+        <v>35.7851358950521</v>
       </c>
       <c r="AM14" t="n">
-        <v>22.31023797074827</v>
+        <v>479.3437388008968</v>
       </c>
       <c r="AN14" t="n">
-        <v>317.7655674111751</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>57.13581741028703</v>
+        <v>92.58921200025564</v>
       </c>
     </row>
     <row r="15">
@@ -2337,85 +2293,82 @@
         <v>176.3499472464806</v>
       </c>
       <c r="O15" t="n">
-        <v>374.6833966007985</v>
+        <v>57318.33824066952</v>
       </c>
       <c r="P15" t="n">
-        <v>28519.61474490567</v>
+        <v>1910.610525942295</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.610525942295</v>
+        <v>10076.53862042816</v>
       </c>
       <c r="R15" t="n">
-        <v>4809.618800206114</v>
+        <v>4172.695808310365</v>
       </c>
       <c r="S15" t="n">
-        <v>1903.671621081187</v>
+        <v>394.6659502519961</v>
       </c>
       <c r="T15" t="n">
-        <v>182.6053615927239</v>
+        <v>1353.513590852763</v>
       </c>
       <c r="U15" t="n">
-        <v>595.0239873038804</v>
+        <v>73.29554545749535</v>
       </c>
       <c r="V15" t="n">
-        <v>33.79578918922841</v>
+        <v>5526.207044907013</v>
       </c>
       <c r="W15" t="n">
-        <v>2498.695608385067</v>
+        <v>467.9629300856207</v>
       </c>
       <c r="X15" t="n">
-        <v>216.4011507819523</v>
+        <v>635.3884554106311</v>
       </c>
       <c r="Y15" t="n">
-        <v>308.1760603677198</v>
+        <v>35.23606783107564</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.80013792560538</v>
+        <v>406.743627958615</v>
       </c>
       <c r="AA15" t="n">
-        <v>202.9881307295983</v>
+        <v>72.33349448147095</v>
       </c>
       <c r="AB15" t="n">
-        <v>35.09979517951745</v>
+        <v>65137.08884319642</v>
       </c>
       <c r="AC15" t="n">
-        <v>44643.96966039926</v>
+        <v>2171.232858706177</v>
       </c>
       <c r="AD15" t="n">
-        <v>2171.232858706177</v>
+        <v>14680.65392456993</v>
       </c>
       <c r="AE15" t="n">
-        <v>9897.517869067144</v>
+        <v>5854.920957469022</v>
       </c>
       <c r="AF15" t="n">
-        <v>3952.959374010981</v>
+        <v>517.9522332444152</v>
       </c>
       <c r="AG15" t="n">
-        <v>346.9189799404267</v>
+        <v>1495.505947482888</v>
       </c>
       <c r="AH15" t="n">
-        <v>978.1714342064328</v>
+        <v>80.27426631001128</v>
       </c>
       <c r="AI15" t="n">
-        <v>54.23182381672674</v>
+        <v>7350.429564889809</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4931.130808217415</v>
+        <v>598.2287261050353</v>
       </c>
       <c r="AK15" t="n">
-        <v>401.1508037571534</v>
+        <v>708.0754786539218</v>
       </c>
       <c r="AL15" t="n">
-        <v>494.4376847470268</v>
+        <v>32.17166008056997</v>
       </c>
       <c r="AM15" t="n">
-        <v>20.95055356478668</v>
+        <v>505.3442365268038</v>
       </c>
       <c r="AN15" t="n">
-        <v>355.0750977849622</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>64.22941451013934</v>
+        <v>93.31379802214032</v>
       </c>
     </row>
     <row r="16">
@@ -2464,85 +2417,82 @@
         <v>142.0633193422788</v>
       </c>
       <c r="O16" t="n">
-        <v>346.8720721883573</v>
+        <v>51613.51035227512</v>
       </c>
       <c r="P16" t="n">
-        <v>32926.1398002757</v>
+        <v>1720.453513164296</v>
       </c>
       <c r="Q16" t="n">
-        <v>1720.453513164296</v>
+        <v>8395.548715387789</v>
       </c>
       <c r="R16" t="n">
-        <v>4999.930198072015</v>
+        <v>3248.05572527435</v>
       </c>
       <c r="S16" t="n">
-        <v>1827.791502924663</v>
+        <v>309.2568015816501</v>
       </c>
       <c r="T16" t="n">
-        <v>175.9014446553394</v>
+        <v>972.6436258245706</v>
       </c>
       <c r="U16" t="n">
-        <v>508.4199466184727</v>
+        <v>51.7341692441231</v>
       </c>
       <c r="V16" t="n">
-        <v>28.54083355808048</v>
+        <v>4220.696971205148</v>
       </c>
       <c r="W16" t="n">
-        <v>2336.211449543136</v>
+        <v>360.9904314355093</v>
       </c>
       <c r="X16" t="n">
-        <v>204.4422782134199</v>
+        <v>550.9115878590532</v>
       </c>
       <c r="Y16" t="n">
-        <v>338.8000625852034</v>
+        <v>29.40819208538393</v>
       </c>
       <c r="Z16" t="n">
-        <v>16.80013697868846</v>
+        <v>377.0123334346523</v>
       </c>
       <c r="AA16" t="n">
-        <v>241.0065107397579</v>
+        <v>57.7305436488417</v>
       </c>
       <c r="AB16" t="n">
-        <v>34.04714683466443</v>
+        <v>57800.00966881914</v>
       </c>
       <c r="AC16" t="n">
-        <v>38543.63801007396</v>
+        <v>1926.667751126596</v>
       </c>
       <c r="AD16" t="n">
-        <v>1926.667751126596</v>
+        <v>11575.47958226888</v>
       </c>
       <c r="AE16" t="n">
-        <v>7500.352122257292</v>
+        <v>4451.834273627451</v>
       </c>
       <c r="AF16" t="n">
-        <v>2842.581928548952</v>
+        <v>404.2195862650771</v>
       </c>
       <c r="AG16" t="n">
-        <v>258.561167233735</v>
+        <v>1070.559031185496</v>
       </c>
       <c r="AH16" t="n">
-        <v>659.5872560049235</v>
+        <v>54.81909935317701</v>
       </c>
       <c r="AI16" t="n">
-        <v>34.71088801207301</v>
+        <v>5522.399373298749</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3502.169184553875</v>
+        <v>459.0386886776178</v>
       </c>
       <c r="AK16" t="n">
-        <v>293.272055245808</v>
+        <v>623.8679841839381</v>
       </c>
       <c r="AL16" t="n">
-        <v>417.7652944494635</v>
+        <v>28.25189021882762</v>
       </c>
       <c r="AM16" t="n">
-        <v>18.11669368568539</v>
+        <v>456.1692117336628</v>
       </c>
       <c r="AN16" t="n">
-        <v>309.0392246559265</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>48.512224809458</v>
+        <v>76.88229347417135</v>
       </c>
     </row>
     <row r="17">
@@ -2591,85 +2541,82 @@
         <v>172.1650619320875</v>
       </c>
       <c r="O17" t="n">
-        <v>366.8467971894113</v>
+        <v>52935.31191014529</v>
       </c>
       <c r="P17" t="n">
-        <v>35099.50248163766</v>
+        <v>1764.50955586183</v>
       </c>
       <c r="Q17" t="n">
-        <v>1764.50955586183</v>
+        <v>9112.742260552033</v>
       </c>
       <c r="R17" t="n">
-        <v>5715.752204868186</v>
+        <v>3775.695679778691</v>
       </c>
       <c r="S17" t="n">
-        <v>2268.38867568515</v>
+        <v>352.7977234041758</v>
       </c>
       <c r="T17" t="n">
-        <v>214.8122642525797</v>
+        <v>1328.424629802749</v>
       </c>
       <c r="U17" t="n">
-        <v>768.293434816453</v>
+        <v>66.68123882960752</v>
       </c>
       <c r="V17" t="n">
-        <v>40.36204561811987</v>
+        <v>5104.121715155508</v>
       </c>
       <c r="W17" t="n">
-        <v>3036.682110501603</v>
+        <v>419.4827359403458</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1743098706996</v>
+        <v>562.3316643451391</v>
       </c>
       <c r="Y17" t="n">
-        <v>365.1997070725795</v>
+        <v>32.54661415548507</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.06471857456953</v>
+        <v>375.5014644404206</v>
       </c>
       <c r="AA17" t="n">
-        <v>252.6741923498681</v>
+        <v>63.89182262544202</v>
       </c>
       <c r="AB17" t="n">
-        <v>40.65864353279618</v>
+        <v>58716.2987845782</v>
       </c>
       <c r="AC17" t="n">
-        <v>37764.86012763311</v>
+        <v>1957.209041841693</v>
       </c>
       <c r="AD17" t="n">
-        <v>1957.209041841693</v>
+        <v>12148.90209831982</v>
       </c>
       <c r="AE17" t="n">
-        <v>7538.553500569907</v>
+        <v>4977.850476360522</v>
       </c>
       <c r="AF17" t="n">
-        <v>3018.159539504659</v>
+        <v>454.6481818096433</v>
       </c>
       <c r="AG17" t="n">
-        <v>280.0283896604058</v>
+        <v>1385.432819688833</v>
       </c>
       <c r="AH17" t="n">
-        <v>841.6968702695507</v>
+        <v>70.51659936120961</v>
       </c>
       <c r="AI17" t="n">
-        <v>43.72445028349194</v>
+        <v>6363.282917604804</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3859.85640977421</v>
+        <v>525.1614076053223</v>
       </c>
       <c r="AK17" t="n">
-        <v>323.7528399438978</v>
+        <v>661.4898673768945</v>
       </c>
       <c r="AL17" t="n">
-        <v>434.9665111118995</v>
+        <v>35.28771221113426</v>
       </c>
       <c r="AM17" t="n">
-        <v>22.13559384510269</v>
+        <v>470.996533917952</v>
       </c>
       <c r="AN17" t="n">
-        <v>313.7413147479647</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>57.76405803896588</v>
+        <v>90.9865048415123</v>
       </c>
     </row>
     <row r="18">
@@ -2718,85 +2665,82 @@
         <v>155.7208296087578</v>
       </c>
       <c r="O18" t="n">
-        <v>364.4412558095571</v>
+        <v>52824.24289593478</v>
       </c>
       <c r="P18" t="n">
-        <v>34778.45641311305</v>
+        <v>1760.808043235038</v>
       </c>
       <c r="Q18" t="n">
-        <v>1760.808043235038</v>
+        <v>8959.309457916206</v>
       </c>
       <c r="R18" t="n">
-        <v>5560.272349912849</v>
+        <v>3900.29367189392</v>
       </c>
       <c r="S18" t="n">
-        <v>2257.525698486046</v>
+        <v>372.3352808347862</v>
       </c>
       <c r="T18" t="n">
-        <v>217.8826227009826</v>
+        <v>1742.449639323137</v>
       </c>
       <c r="U18" t="n">
-        <v>931.3673302696711</v>
+        <v>78.74162864546149</v>
       </c>
       <c r="V18" t="n">
-        <v>44.64863897181421</v>
+        <v>5642.742062524383</v>
       </c>
       <c r="W18" t="n">
-        <v>3188.893028755718</v>
+        <v>451.0769119125523</v>
       </c>
       <c r="X18" t="n">
-        <v>262.5312616727967</v>
+        <v>572.318998933893</v>
       </c>
       <c r="Y18" t="n">
-        <v>368.2674480811921</v>
+        <v>35.36059902903018</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.14689341627628</v>
+        <v>376.907630750982</v>
       </c>
       <c r="AA18" t="n">
-        <v>252.2215210512003</v>
+        <v>62.40075806135567</v>
       </c>
       <c r="AB18" t="n">
-        <v>37.41097962965436</v>
+        <v>56756.17594674123</v>
       </c>
       <c r="AC18" t="n">
-        <v>38789.10330698678</v>
+        <v>1891.871187086243</v>
       </c>
       <c r="AD18" t="n">
-        <v>1891.871187086243</v>
+        <v>11050.60912768243</v>
       </c>
       <c r="AE18" t="n">
-        <v>7356.396746422148</v>
+        <v>4389.573660180118</v>
       </c>
       <c r="AF18" t="n">
-        <v>2858.680317733028</v>
+        <v>393.7862433875408</v>
       </c>
       <c r="AG18" t="n">
-        <v>261.8492723732495</v>
+        <v>1180.05099008082</v>
       </c>
       <c r="AH18" t="n">
-        <v>747.232681152783</v>
+        <v>57.66583179496305</v>
       </c>
       <c r="AI18" t="n">
-        <v>38.68482754943238</v>
+        <v>5569.627902510871</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3605.912998885812</v>
+        <v>451.4524661673981</v>
       </c>
       <c r="AK18" t="n">
-        <v>300.5340999226819</v>
+        <v>636.4207361728154</v>
       </c>
       <c r="AL18" t="n">
-        <v>440.4386724997949</v>
+        <v>29.57901564550048</v>
       </c>
       <c r="AM18" t="n">
-        <v>19.71950575823007</v>
+        <v>462.6598445029787</v>
       </c>
       <c r="AN18" t="n">
-        <v>321.8896465371676</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>53.23076595544166</v>
+        <v>79.44020308007069</v>
       </c>
     </row>
     <row r="19">
@@ -2845,85 +2789,82 @@
         <v>162.9013111419744</v>
       </c>
       <c r="O19" t="n">
-        <v>365.6278378716945</v>
+        <v>56049.56276175677</v>
       </c>
       <c r="P19" t="n">
-        <v>33127.53413719211</v>
+        <v>1868.316378184173</v>
       </c>
       <c r="Q19" t="n">
-        <v>1868.316378184173</v>
+        <v>9954.86755185849</v>
       </c>
       <c r="R19" t="n">
-        <v>5493.002211918173</v>
+        <v>4207.376966800456</v>
       </c>
       <c r="S19" t="n">
-        <v>2189.973271838895</v>
+        <v>392.8258964811372</v>
       </c>
       <c r="T19" t="n">
-        <v>211.4833142560311</v>
+        <v>1533.699061955585</v>
       </c>
       <c r="U19" t="n">
-        <v>782.8380331719733</v>
+        <v>70.63287957041472</v>
       </c>
       <c r="V19" t="n">
-        <v>39.79683536434907</v>
+        <v>5741.074087136277</v>
       </c>
       <c r="W19" t="n">
-        <v>2972.811305010868</v>
+        <v>463.4550683414853</v>
       </c>
       <c r="X19" t="n">
-        <v>251.2801496203802</v>
+        <v>611.7127660573184</v>
       </c>
       <c r="Y19" t="n">
-        <v>358.2153884310025</v>
+        <v>35.55141800278616</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.30675555594733</v>
+        <v>406.3214721864962</v>
       </c>
       <c r="AA19" t="n">
-        <v>245.7606014310734</v>
+        <v>70.27078947556659</v>
       </c>
       <c r="AB19" t="n">
-        <v>39.56686566997341</v>
+        <v>56527.41953113591</v>
       </c>
       <c r="AC19" t="n">
-        <v>38641.05603598504</v>
+        <v>1884.246512885433</v>
       </c>
       <c r="AD19" t="n">
-        <v>1884.246512885433</v>
+        <v>10610.69187623875</v>
       </c>
       <c r="AE19" t="n">
-        <v>6885.945506734094</v>
+        <v>4089.33386858571</v>
       </c>
       <c r="AF19" t="n">
-        <v>2574.243006244213</v>
+        <v>383.755998736229</v>
       </c>
       <c r="AG19" t="n">
-        <v>248.5407619768943</v>
+        <v>1144.385400044443</v>
       </c>
       <c r="AH19" t="n">
-        <v>716.284388720252</v>
+        <v>58.51945471522343</v>
       </c>
       <c r="AI19" t="n">
-        <v>39.15427244324875</v>
+        <v>5233.717366306617</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3290.527394964465</v>
+        <v>442.2758272645092</v>
       </c>
       <c r="AK19" t="n">
-        <v>287.6950344201431</v>
+        <v>644.2289461049512</v>
       </c>
       <c r="AL19" t="n">
-        <v>441.476470358365</v>
+        <v>34.12810754107368</v>
       </c>
       <c r="AM19" t="n">
-        <v>21.66854298761625</v>
+        <v>451.250898775629</v>
       </c>
       <c r="AN19" t="n">
-        <v>320.3944488172605</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>56.50795253945002</v>
+        <v>85.47496948190636</v>
       </c>
     </row>
     <row r="20">
@@ -2972,85 +2913,82 @@
         <v>165.2600230537463</v>
       </c>
       <c r="O20" t="n">
-        <v>361.4831796733648</v>
+        <v>52587.48113063564</v>
       </c>
       <c r="P20" t="n">
-        <v>37980.32181963301</v>
+        <v>1752.915612719578</v>
       </c>
       <c r="Q20" t="n">
-        <v>1752.915612719578</v>
+        <v>8983.114389350721</v>
       </c>
       <c r="R20" t="n">
-        <v>6100.737107956122</v>
+        <v>3419.226799198748</v>
       </c>
       <c r="S20" t="n">
-        <v>2183.387414436553</v>
+        <v>316.9080304406241</v>
       </c>
       <c r="T20" t="n">
-        <v>205.4113239353971</v>
+        <v>1153.699478486806</v>
       </c>
       <c r="U20" t="n">
-        <v>703.904782913678</v>
+        <v>57.52817366051016</v>
       </c>
       <c r="V20" t="n">
-        <v>36.92086428253129</v>
+        <v>4572.924418621353</v>
       </c>
       <c r="W20" t="n">
-        <v>2887.292197350231</v>
+        <v>374.4361355551526</v>
       </c>
       <c r="X20" t="n">
-        <v>242.3321882179284</v>
+        <v>589.1985420998337</v>
       </c>
       <c r="Y20" t="n">
-        <v>422.6538185443006</v>
+        <v>31.59034359835545</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.89204291539721</v>
+        <v>406.6596771998545</v>
       </c>
       <c r="AA20" t="n">
-        <v>300.2540945187556</v>
+        <v>63.71741863092924</v>
       </c>
       <c r="AB20" t="n">
-        <v>42.54323122652271</v>
+        <v>55362.54596562518</v>
       </c>
       <c r="AC20" t="n">
-        <v>35968.79915831723</v>
+        <v>1845.418630413185</v>
       </c>
       <c r="AD20" t="n">
-        <v>1845.418630413185</v>
+        <v>10306.4278428551</v>
       </c>
       <c r="AE20" t="n">
-        <v>6454.237186112067</v>
+        <v>4160.840467156505</v>
       </c>
       <c r="AF20" t="n">
-        <v>2503.050084923632</v>
+        <v>370.2042519645436</v>
       </c>
       <c r="AG20" t="n">
-        <v>229.0429072352589</v>
+        <v>1149.819608484752</v>
       </c>
       <c r="AH20" t="n">
-        <v>676.3270828890924</v>
+        <v>52.89451118649521</v>
       </c>
       <c r="AI20" t="n">
-        <v>33.33105449905658</v>
+        <v>5310.658626462639</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3179.377167812725</v>
+        <v>423.1033150835259</v>
       </c>
       <c r="AK20" t="n">
-        <v>262.3739617343155</v>
+        <v>620.9873255396225</v>
       </c>
       <c r="AL20" t="n">
-        <v>412.7458707591005</v>
+        <v>31.58436443312524</v>
       </c>
       <c r="AM20" t="n">
-        <v>19.74199154754539</v>
+        <v>446.6480171768512</v>
       </c>
       <c r="AN20" t="n">
-        <v>302.5014731857756</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>52.57975417901963</v>
+        <v>84.93892078006701</v>
       </c>
     </row>
     <row r="21">
@@ -3099,85 +3037,82 @@
         <v>160.0713650400052</v>
       </c>
       <c r="O21" t="n">
-        <v>368.046614366434</v>
+        <v>54275.56491876059</v>
       </c>
       <c r="P21" t="n">
-        <v>33881.53244342588</v>
+        <v>1809.184168714792</v>
       </c>
       <c r="Q21" t="n">
-        <v>1809.184168714792</v>
+        <v>9247.098606561178</v>
       </c>
       <c r="R21" t="n">
-        <v>5590.28921284122</v>
+        <v>3572.666211486747</v>
       </c>
       <c r="S21" t="n">
-        <v>2029.782096296103</v>
+        <v>337.834258392103</v>
       </c>
       <c r="T21" t="n">
-        <v>193.488725098034</v>
+        <v>1276.413660927913</v>
       </c>
       <c r="U21" t="n">
-        <v>682.1260003478116</v>
+        <v>58.82750471149499</v>
       </c>
       <c r="V21" t="n">
-        <v>33.56161064782529</v>
+        <v>4849.081883068684</v>
       </c>
       <c r="W21" t="n">
-        <v>2711.908096643914</v>
+        <v>396.6592144254979</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0503357458593</v>
+        <v>571.468974803861</v>
       </c>
       <c r="Y21" t="n">
-        <v>351.4500036590838</v>
+        <v>32.15351737178386</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.8592537785917</v>
+        <v>386.0546266879866</v>
       </c>
       <c r="AA21" t="n">
-        <v>244.7374802781093</v>
+        <v>59.1772327501518</v>
       </c>
       <c r="AB21" t="n">
-        <v>36.41956586878447</v>
+        <v>59750.99033538119</v>
       </c>
       <c r="AC21" t="n">
-        <v>39766.82587048542</v>
+        <v>1991.698497834463</v>
       </c>
       <c r="AD21" t="n">
-        <v>1991.698497834463</v>
+        <v>12132.55355988894</v>
       </c>
       <c r="AE21" t="n">
-        <v>7901.486218791681</v>
+        <v>4710.273566200602</v>
       </c>
       <c r="AF21" t="n">
-        <v>2973.641315078616</v>
+        <v>418.2809118466979</v>
       </c>
       <c r="AG21" t="n">
-        <v>266.6323454957238</v>
+        <v>1270.631924262015</v>
       </c>
       <c r="AH21" t="n">
-        <v>768.9954256111707</v>
+        <v>61.75076224747642</v>
       </c>
       <c r="AI21" t="n">
-        <v>39.36044760643578</v>
+        <v>5980.903693394642</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3742.636740689787</v>
+        <v>480.0271807132946</v>
       </c>
       <c r="AK21" t="n">
-        <v>305.9927931021595</v>
+        <v>649.7747442056685</v>
       </c>
       <c r="AL21" t="n">
-        <v>438.6722781318823</v>
+        <v>31.53008585769495</v>
       </c>
       <c r="AM21" t="n">
-        <v>19.58509194245211</v>
+        <v>473.5494435308573</v>
       </c>
       <c r="AN21" t="n">
-        <v>324.2560509642183</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>53.45113126183679</v>
+        <v>83.9043659997767</v>
       </c>
     </row>
   </sheetData>
